--- a/统计工作/NewSummary.xlsx
+++ b/统计工作/NewSummary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="626" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="626" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="联盟系统DKP榜单" sheetId="19" r:id="rId1"/>
@@ -10946,7 +10946,7 @@
       </c>
       <c r="B12" s="8">
         <f>IF(ISNA(VLOOKUP(A12,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A12,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A12,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A12,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A12,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A12,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A12,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A12,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>116</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="B21" s="8">
         <f>IF(ISNA(VLOOKUP(A21,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A21,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A21,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A21,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A21,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A21,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A21,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A21,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>166</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="B46" s="8">
         <f>IF(ISNA(VLOOKUP(A46,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A46,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A46,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A46,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A46,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A46,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A46,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A46,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="B75" s="8">
         <f>IF(ISNA(VLOOKUP(A75,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A75,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A75,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A75,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A75,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A75,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A75,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A75,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -11766,7 +11766,7 @@
       </c>
       <c r="B94" s="8">
         <f>IF(ISNA(VLOOKUP(A94,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A94,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A94,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A94,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A94,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A94,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A94,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A94,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="B99" s="8">
         <f>IF(ISNA(VLOOKUP(A99,'逐梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A99,'逐梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A99,'如梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A99,'如梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A99,'若梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A99,'若梦-箱子'!A$2:G$600,7,0))+IF(ISNA(VLOOKUP(A99,'何梦-箱子'!A$2:G$600,7,0)),0,VLOOKUP(A99,'何梦-箱子'!A$2:G$600,7,0))</f>
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -22553,9 +22553,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22608,7 +22608,7 @@
         <v>322</v>
       </c>
       <c r="C2" s="17">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A2)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A2)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A2)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="17">
@@ -22643,7 +22643,7 @@
         <v>371</v>
       </c>
       <c r="C3" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A3)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A3)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A3)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A3)</f>
         <v>0</v>
       </c>
       <c r="D3" s="20">
@@ -22678,7 +22678,7 @@
         <v>360</v>
       </c>
       <c r="C4" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
         <v>0</v>
       </c>
       <c r="D4" s="20">
@@ -22708,7 +22708,7 @@
         <v>348</v>
       </c>
       <c r="C5" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A5)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A5)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A5)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A5)</f>
         <v>0</v>
       </c>
       <c r="D5" s="20">
@@ -22738,7 +22738,7 @@
         <v>297</v>
       </c>
       <c r="C6" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A6)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A6)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A6)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A6)</f>
         <v>0</v>
       </c>
       <c r="D6" s="20">
@@ -22768,7 +22768,7 @@
         <v>306</v>
       </c>
       <c r="C7" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A7)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A7)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A7)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A7)</f>
         <v>0</v>
       </c>
       <c r="D7" s="20">
@@ -22798,7 +22798,7 @@
         <v>266</v>
       </c>
       <c r="C8" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A8)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A8)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A8)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A8)</f>
         <v>0</v>
       </c>
       <c r="D8" s="20">
@@ -22828,7 +22828,7 @@
         <v>265</v>
       </c>
       <c r="C9" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
         <v>0</v>
       </c>
       <c r="D9" s="20">
@@ -22858,7 +22858,7 @@
         <v>230</v>
       </c>
       <c r="C10" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
         <v>0</v>
       </c>
       <c r="D10" s="20">
@@ -22888,7 +22888,7 @@
         <v>216</v>
       </c>
       <c r="C11" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A11)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A11)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A11)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A11)</f>
         <v>0</v>
       </c>
       <c r="D11" s="20">
@@ -22918,7 +22918,7 @@
         <v>220</v>
       </c>
       <c r="C12" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
         <v>0</v>
       </c>
       <c r="D12" s="20">
@@ -22948,8 +22948,8 @@
         <v>212</v>
       </c>
       <c r="C13" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
-        <v>40</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
+        <v>-40</v>
       </c>
       <c r="D13" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A13)</f>
@@ -22957,15 +22957,15 @@
       </c>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="F13" s="20">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5">
@@ -22978,7 +22978,7 @@
         <v>231</v>
       </c>
       <c r="C14" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A14)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A14)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A14)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A14)</f>
         <v>0</v>
       </c>
       <c r="D14" s="20">
@@ -23008,7 +23008,7 @@
         <v>172</v>
       </c>
       <c r="C15" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A15)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A15)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A15)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A15)</f>
         <v>0</v>
       </c>
       <c r="D15" s="20">
@@ -23038,7 +23038,7 @@
         <v>179</v>
       </c>
       <c r="C16" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A16)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A16)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A16)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A16)</f>
         <v>0</v>
       </c>
       <c r="D16" s="20">
@@ -23068,7 +23068,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A17)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A17)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A17)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A17)</f>
         <v>0</v>
       </c>
       <c r="D17" s="20">
@@ -23098,8 +23098,8 @@
         <v>164</v>
       </c>
       <c r="C18" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
-        <v>40</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
+        <v>-40</v>
       </c>
       <c r="D18" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A18)</f>
@@ -23107,15 +23107,15 @@
       </c>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="F18" s="20">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5">
@@ -23128,8 +23128,8 @@
         <v>163</v>
       </c>
       <c r="C19" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A19)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A19)</f>
-        <v>40</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A19)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A19)</f>
+        <v>-40</v>
       </c>
       <c r="D19" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A19)</f>
@@ -23137,15 +23137,15 @@
       </c>
       <c r="E19" s="20">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="F19" s="20">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5">
@@ -23158,7 +23158,7 @@
         <v>214</v>
       </c>
       <c r="C20" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A20)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A20)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A20)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A20)</f>
         <v>0</v>
       </c>
       <c r="D20" s="20">
@@ -23188,7 +23188,7 @@
         <v>133</v>
       </c>
       <c r="C21" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A21)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A21)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A21)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A21)</f>
         <v>0</v>
       </c>
       <c r="D21" s="20">
@@ -23218,7 +23218,7 @@
         <v>143</v>
       </c>
       <c r="C22" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A22)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A22)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A22)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A22)</f>
         <v>0</v>
       </c>
       <c r="D22" s="20">
@@ -23248,7 +23248,7 @@
         <v>162</v>
       </c>
       <c r="C23" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A23)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A23)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A23)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A23)</f>
         <v>0</v>
       </c>
       <c r="D23" s="20">
@@ -23278,7 +23278,7 @@
         <v>144</v>
       </c>
       <c r="C24" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
         <v>0</v>
       </c>
       <c r="D24" s="20">
@@ -23308,7 +23308,7 @@
         <v>133</v>
       </c>
       <c r="C25" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A25)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A25)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A25)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A25)</f>
         <v>0</v>
       </c>
       <c r="D25" s="20">
@@ -23338,7 +23338,7 @@
         <v>128</v>
       </c>
       <c r="C26" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A26)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A26)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A26)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A26)</f>
         <v>0</v>
       </c>
       <c r="D26" s="20">
@@ -23368,7 +23368,7 @@
         <v>152</v>
       </c>
       <c r="C27" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A27)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A27)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A27)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A27)</f>
         <v>0</v>
       </c>
       <c r="D27" s="20">
@@ -23398,7 +23398,7 @@
         <v>130</v>
       </c>
       <c r="C28" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A28)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A28)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A28)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A28)</f>
         <v>0</v>
       </c>
       <c r="D28" s="20">
@@ -23428,7 +23428,7 @@
         <v>105</v>
       </c>
       <c r="C29" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A29)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A29)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A29)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A29)</f>
         <v>0</v>
       </c>
       <c r="D29" s="20">
@@ -23458,7 +23458,7 @@
         <v>105</v>
       </c>
       <c r="C30" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A30)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A30)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A30)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A30)</f>
         <v>0</v>
       </c>
       <c r="D30" s="20">
@@ -23488,7 +23488,7 @@
         <v>113</v>
       </c>
       <c r="C31" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A31)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A31)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A31)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A31)</f>
         <v>0</v>
       </c>
       <c r="D31" s="20">
@@ -23518,7 +23518,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A32)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A32)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A32)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A32)</f>
         <v>0</v>
       </c>
       <c r="D32" s="20">
@@ -23548,7 +23548,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A33)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A33)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A33)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A33)</f>
         <v>0</v>
       </c>
       <c r="D33" s="20">
@@ -23578,7 +23578,7 @@
         <v>97</v>
       </c>
       <c r="C34" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A34)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A34)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A34)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A34)</f>
         <v>0</v>
       </c>
       <c r="D34" s="20">
@@ -23608,7 +23608,7 @@
         <v>74</v>
       </c>
       <c r="C35" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A35)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A35)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A35)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A35)</f>
         <v>0</v>
       </c>
       <c r="D35" s="20">
@@ -23638,7 +23638,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A36)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A36)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A36)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A36)</f>
         <v>0</v>
       </c>
       <c r="D36" s="20">
@@ -23668,7 +23668,7 @@
         <v>113</v>
       </c>
       <c r="C37" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A37)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A37)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A37)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A37)</f>
         <v>0</v>
       </c>
       <c r="D37" s="20">
@@ -23698,7 +23698,7 @@
         <v>108</v>
       </c>
       <c r="C38" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A38)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A38)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A38)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A38)</f>
         <v>0</v>
       </c>
       <c r="D38" s="20">
@@ -23728,7 +23728,7 @@
         <v>108</v>
       </c>
       <c r="C39" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A39)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A39)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A39)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A39)</f>
         <v>0</v>
       </c>
       <c r="D39" s="20">
@@ -23758,7 +23758,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A40)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A40)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A40)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A40)</f>
         <v>0</v>
       </c>
       <c r="D40" s="20">
@@ -23788,7 +23788,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A41)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A41)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A41)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A41)</f>
         <v>0</v>
       </c>
       <c r="D41" s="20">
@@ -23818,7 +23818,7 @@
         <v>35</v>
       </c>
       <c r="C42" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A42)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A42)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A42)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A42)</f>
         <v>0</v>
       </c>
       <c r="D42" s="20">
@@ -23848,7 +23848,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A43)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A43)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A43)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A43)</f>
         <v>0</v>
       </c>
       <c r="D43" s="20">
@@ -23878,7 +23878,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A44)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A44)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A44)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A44)</f>
         <v>0</v>
       </c>
       <c r="D44" s="20">
@@ -23908,7 +23908,7 @@
         <v>59</v>
       </c>
       <c r="C45" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A45)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A45)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A45)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A45)</f>
         <v>0</v>
       </c>
       <c r="D45" s="20">
@@ -23938,7 +23938,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A46)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A46)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A46)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A46)</f>
         <v>0</v>
       </c>
       <c r="D46" s="20">
@@ -23968,7 +23968,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A47)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A47)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A47)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A47)</f>
         <v>0</v>
       </c>
       <c r="D47" s="20">
@@ -23998,7 +23998,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A48)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A48)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A48)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A48)</f>
         <v>0</v>
       </c>
       <c r="D48" s="20">
@@ -24028,7 +24028,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A49)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A49)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A49)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A49)</f>
         <v>0</v>
       </c>
       <c r="D49" s="20">
@@ -24058,7 +24058,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A50)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A50)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A50)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A50)</f>
         <v>0</v>
       </c>
       <c r="D50" s="20">
@@ -24088,7 +24088,7 @@
         <v>19</v>
       </c>
       <c r="C51" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A51)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A51)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A51)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A51)</f>
         <v>0</v>
       </c>
       <c r="D51" s="20">
@@ -24118,7 +24118,7 @@
         <v>19</v>
       </c>
       <c r="C52" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A52)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A52)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A52)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A52)</f>
         <v>0</v>
       </c>
       <c r="D52" s="20">
@@ -24148,7 +24148,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A53)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A53)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A53)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A53)</f>
         <v>0</v>
       </c>
       <c r="D53" s="20">
@@ -24178,7 +24178,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A54)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A54)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A54)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A54)</f>
         <v>0</v>
       </c>
       <c r="D54" s="20">
@@ -24208,7 +24208,7 @@
         <v>19</v>
       </c>
       <c r="C55" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A55)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A55)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A55)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A55)</f>
         <v>0</v>
       </c>
       <c r="D55" s="20">
@@ -24238,7 +24238,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A56)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A56)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A56)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A56)</f>
         <v>0</v>
       </c>
       <c r="D56" s="20">
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A57)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A57)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A57)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A57)</f>
         <v>0</v>
       </c>
       <c r="D57" s="20">
@@ -24298,7 +24298,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A58)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A58)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A58)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A58)</f>
         <v>0</v>
       </c>
       <c r="D58" s="20">
@@ -24328,7 +24328,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A59)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A59)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A59)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A59)</f>
         <v>0</v>
       </c>
       <c r="D59" s="20">
@@ -24358,7 +24358,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A60)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A60)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A60)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A60)</f>
         <v>0</v>
       </c>
       <c r="D60" s="20">
@@ -24388,7 +24388,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A61)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A61)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A61)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A61)</f>
         <v>0</v>
       </c>
       <c r="D61" s="20">
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A62)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A62)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A62)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A62)</f>
         <v>0</v>
       </c>
       <c r="D62" s="20">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A63)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A63)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A63)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A63)</f>
         <v>0</v>
       </c>
       <c r="D63" s="20">
@@ -24478,7 +24478,7 @@
         <v>0</v>
       </c>
       <c r="C64" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A64)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A64)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A64)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A64)</f>
         <v>0</v>
       </c>
       <c r="D64" s="20">
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A65)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A65)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A65)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A65)</f>
         <v>0</v>
       </c>
       <c r="D65" s="20">
@@ -24538,7 +24538,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A66)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A66)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A66)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A66)</f>
         <v>0</v>
       </c>
       <c r="D66" s="20">
@@ -24568,7 +24568,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A67)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A67)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A67)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A67)</f>
         <v>0</v>
       </c>
       <c r="D67" s="20">
@@ -24598,7 +24598,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A68)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A68)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A68)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A68)</f>
         <v>0</v>
       </c>
       <c r="D68" s="20">
@@ -24628,7 +24628,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A69)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A69)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A69)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A69)</f>
         <v>0</v>
       </c>
       <c r="D69" s="20">
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A70)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A70)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A70)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A70)</f>
         <v>0</v>
       </c>
       <c r="D70" s="20">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A71)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A71)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A71)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A71)</f>
         <v>0</v>
       </c>
       <c r="D71" s="20">
@@ -24718,7 +24718,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A72)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A72)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A72)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A72)</f>
         <v>0</v>
       </c>
       <c r="D72" s="20">
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A73)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A73)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A73)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A73)</f>
         <v>0</v>
       </c>
       <c r="D73" s="20">
@@ -24778,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A74)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A74)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A74)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A74)</f>
         <v>0</v>
       </c>
       <c r="D74" s="20">
@@ -24808,7 +24808,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A75)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A75)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A75)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A75)</f>
         <v>0</v>
       </c>
       <c r="D75" s="20">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A76)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A76)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A76)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A76)</f>
         <v>0</v>
       </c>
       <c r="D76" s="20">
@@ -24868,7 +24868,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A77)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A77)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A77)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A77)</f>
         <v>0</v>
       </c>
       <c r="D77" s="20">
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A78)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A78)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A78)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A78)</f>
         <v>0</v>
       </c>
       <c r="D78" s="20">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A79)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A79)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A79)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A79)</f>
         <v>0</v>
       </c>
       <c r="D79" s="20">
@@ -24958,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A80)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A80)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A80)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A80)</f>
         <v>0</v>
       </c>
       <c r="D80" s="20">
@@ -24988,7 +24988,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A81)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A81)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A81)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A81)</f>
         <v>0</v>
       </c>
       <c r="D81" s="20">
@@ -25018,7 +25018,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A82)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A82)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A82)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A82)</f>
         <v>0</v>
       </c>
       <c r="D82" s="20">
@@ -25048,7 +25048,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A83)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A83)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A83)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A83)</f>
         <v>0</v>
       </c>
       <c r="D83" s="20">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A84)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A84)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A84)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A84)</f>
         <v>0</v>
       </c>
       <c r="D84" s="20">
@@ -25108,7 +25108,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A85)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A85)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A85)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A85)</f>
         <v>0</v>
       </c>
       <c r="D85" s="20">
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A86)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A86)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A86)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A86)</f>
         <v>0</v>
       </c>
       <c r="D86" s="20">
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A87)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A87)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A87)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A87)</f>
         <v>0</v>
       </c>
       <c r="D87" s="20">
@@ -25198,7 +25198,7 @@
         <v>14</v>
       </c>
       <c r="C88" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A88)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A88)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A88)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A88)</f>
         <v>0</v>
       </c>
       <c r="D88" s="20">
@@ -25228,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A89)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A89)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A89)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A89)</f>
         <v>0</v>
       </c>
       <c r="D89" s="20">
@@ -25258,7 +25258,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A90)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A90)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A90)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A90)</f>
         <v>0</v>
       </c>
       <c r="D90" s="20">
@@ -25288,7 +25288,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A91)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A91)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A91)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A91)</f>
         <v>0</v>
       </c>
       <c r="D91" s="20">
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A92)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A92)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A92)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A92)</f>
         <v>0</v>
       </c>
       <c r="D92" s="20">
@@ -25348,7 +25348,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A93)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A93)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A93)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A93)</f>
         <v>0</v>
       </c>
       <c r="D93" s="20">
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A94)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A94)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A94)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A94)</f>
         <v>0</v>
       </c>
       <c r="D94" s="20">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A95)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A95)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A95)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A95)</f>
         <v>0</v>
       </c>
       <c r="D95" s="20">
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A96)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A96)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A96)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A96)</f>
         <v>0</v>
       </c>
       <c r="D96" s="20">
@@ -25468,7 +25468,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A97)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A97)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A97)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A97)</f>
         <v>0</v>
       </c>
       <c r="D97" s="20">
@@ -25498,7 +25498,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A98)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A98)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A98)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A98)</f>
         <v>0</v>
       </c>
       <c r="D98" s="20">
@@ -25528,7 +25528,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A99)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A99)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A99)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A99)</f>
         <v>0</v>
       </c>
       <c r="D99" s="20">
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A100)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A100)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A100)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A100)</f>
         <v>0</v>
       </c>
       <c r="D100" s="20">
@@ -25588,7 +25588,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A101)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A101)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A101)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A101)</f>
         <v>0</v>
       </c>
       <c r="D101" s="20">
@@ -25618,7 +25618,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A102)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A102)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A102)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A102)</f>
         <v>0</v>
       </c>
       <c r="D102" s="20">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A103)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A103)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A103)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A103)</f>
         <v>0</v>
       </c>
       <c r="D103" s="20">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A104)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A104)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A104)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A104)</f>
         <v>0</v>
       </c>
       <c r="D104" s="20">
@@ -25708,7 +25708,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A105)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A105)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A105)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A105)</f>
         <v>0</v>
       </c>
       <c r="D105" s="20">
@@ -25738,7 +25738,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A106)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A106)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A106)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A106)</f>
         <v>0</v>
       </c>
       <c r="D106" s="20">
@@ -25768,7 +25768,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A107)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A107)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A107)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A107)</f>
         <v>0</v>
       </c>
       <c r="D107" s="20">
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A108)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A108)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A108)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A108)</f>
         <v>0</v>
       </c>
       <c r="D108" s="20">
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A109)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A109)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A109)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A109)</f>
         <v>0</v>
       </c>
       <c r="D109" s="20">
@@ -25858,7 +25858,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A110)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A110)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A110)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A110)</f>
         <v>0</v>
       </c>
       <c r="D110" s="20">
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A111)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A111)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A111)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A111)</f>
         <v>0</v>
       </c>
       <c r="D111" s="20">
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A112)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A112)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A112)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A112)</f>
         <v>0</v>
       </c>
       <c r="D112" s="20">
@@ -25948,7 +25948,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A113)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A113)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A113)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A113)</f>
         <v>0</v>
       </c>
       <c r="D113" s="20">
@@ -25978,7 +25978,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A114)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A114)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A114)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A114)</f>
         <v>0</v>
       </c>
       <c r="D114" s="20">
@@ -26008,7 +26008,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A115)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A115)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A115)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A115)</f>
         <v>0</v>
       </c>
       <c r="D115" s="20">
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A116)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A116)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A116)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A116)</f>
         <v>0</v>
       </c>
       <c r="D116" s="20">
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A117)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A117)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A117)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A117)</f>
         <v>0</v>
       </c>
       <c r="D117" s="20">
@@ -26098,7 +26098,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A118)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A118)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A118)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A118)</f>
         <v>0</v>
       </c>
       <c r="D118" s="20">
@@ -26128,7 +26128,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A119)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A119)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A119)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A119)</f>
         <v>0</v>
       </c>
       <c r="D119" s="20">
@@ -26158,7 +26158,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A120)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A120)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A120)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A120)</f>
         <v>0</v>
       </c>
       <c r="D120" s="20">
@@ -26188,7 +26188,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A121)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A121)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A121)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A121)</f>
         <v>0</v>
       </c>
       <c r="D121" s="20">
@@ -26218,7 +26218,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A122)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A122)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A122)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A122)</f>
         <v>0</v>
       </c>
       <c r="D122" s="20">
@@ -26248,7 +26248,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A123)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A123)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A123)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A123)</f>
         <v>0</v>
       </c>
       <c r="D123" s="20">
@@ -26278,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A124)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A124)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A124)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A124)</f>
         <v>0</v>
       </c>
       <c r="D124" s="20">
@@ -26308,7 +26308,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A125)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A125)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A125)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A125)</f>
         <v>0</v>
       </c>
       <c r="D125" s="20">
@@ -26338,7 +26338,7 @@
         <v>4</v>
       </c>
       <c r="C126" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A126)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A126)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A126)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A126)</f>
         <v>0</v>
       </c>
       <c r="D126" s="20">
@@ -26368,7 +26368,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A127)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A127)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A127)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A127)</f>
         <v>0</v>
       </c>
       <c r="D127" s="20">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A128)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A128)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A128)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A128)</f>
         <v>0</v>
       </c>
       <c r="D128" s="20">
@@ -26428,7 +26428,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A129)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A129)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A129)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A129)</f>
         <v>0</v>
       </c>
       <c r="D129" s="20">
@@ -26458,7 +26458,7 @@
         <v>0</v>
       </c>
       <c r="C130" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A130)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A130)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A130)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A130)</f>
         <v>0</v>
       </c>
       <c r="D130" s="20">
@@ -26466,7 +26466,7 @@
         <v>0</v>
       </c>
       <c r="E130" s="20">
-        <f t="shared" ref="E130:E161" si="10">SUM(B130:D130)</f>
+        <f t="shared" ref="E130:E144" si="10">SUM(B130:D130)</f>
         <v>0</v>
       </c>
       <c r="F130" s="20">
@@ -26474,7 +26474,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="8">
-        <f t="shared" ref="G130:G161" si="11">IF(F130=0.01,E130-16,E130-F130*50)</f>
+        <f t="shared" ref="G130:G144" si="11">IF(F130=0.01,E130-16,E130-F130*50)</f>
         <v>0</v>
       </c>
     </row>
@@ -26488,7 +26488,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A131)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A131)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A131)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A131)</f>
         <v>0</v>
       </c>
       <c r="D131" s="20">
@@ -26518,7 +26518,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A132)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A132)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A132)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A132)</f>
         <v>0</v>
       </c>
       <c r="D132" s="20">
@@ -26548,7 +26548,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A133)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A133)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A133)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A133)</f>
         <v>0</v>
       </c>
       <c r="D133" s="20">
@@ -26578,7 +26578,7 @@
         <v>4</v>
       </c>
       <c r="C134" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A134)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A134)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A134)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A134)</f>
         <v>0</v>
       </c>
       <c r="D134" s="20">
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="C135" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A135)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A135)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A135)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A135)</f>
         <v>0</v>
       </c>
       <c r="D135" s="20">
@@ -26638,7 +26638,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A136)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A136)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A136)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A136)</f>
         <v>0</v>
       </c>
       <c r="D136" s="20">
@@ -26668,7 +26668,7 @@
         <v>0</v>
       </c>
       <c r="C137" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A137)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A137)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A137)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A137)</f>
         <v>0</v>
       </c>
       <c r="D137" s="20">
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="C138" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A138)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A138)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A138)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A138)</f>
         <v>0</v>
       </c>
       <c r="D138" s="20">
@@ -26728,7 +26728,7 @@
         <v>0</v>
       </c>
       <c r="C139" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A139)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A139)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A139)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A139)</f>
         <v>0</v>
       </c>
       <c r="D139" s="20">
@@ -26758,7 +26758,7 @@
         <v>0</v>
       </c>
       <c r="C140" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A140)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A140)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A140)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A140)</f>
         <v>0</v>
       </c>
       <c r="D140" s="20">
@@ -26788,7 +26788,7 @@
         <v>0</v>
       </c>
       <c r="C141" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A141)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A141)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A141)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A141)</f>
         <v>0</v>
       </c>
       <c r="D141" s="20">
@@ -26818,7 +26818,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A142)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A142)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A142)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A142)</f>
         <v>0</v>
       </c>
       <c r="D142" s="20">
@@ -26848,7 +26848,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A143)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A143)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A143)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A143)</f>
         <v>0</v>
       </c>
       <c r="D143" s="20">
@@ -26878,7 +26878,7 @@
         <v>0</v>
       </c>
       <c r="C144" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A144)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A144)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A144)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A144)</f>
         <v>0</v>
       </c>
       <c r="D144" s="20">
@@ -26908,8 +26908,8 @@
         <v>#N/A</v>
       </c>
       <c r="C145" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A145)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A145)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A145)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A145)</f>
+        <v>41480</v>
       </c>
       <c r="D145" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A145)</f>
@@ -26938,8 +26938,8 @@
         <v>#N/A</v>
       </c>
       <c r="C146" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A146)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A146)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A146)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A146)</f>
+        <v>41480</v>
       </c>
       <c r="D146" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A146)</f>
@@ -26968,8 +26968,8 @@
         <v>#N/A</v>
       </c>
       <c r="C147" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A147)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A147)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A147)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A147)</f>
+        <v>41480</v>
       </c>
       <c r="D147" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A147)</f>
@@ -26998,8 +26998,8 @@
         <v>#N/A</v>
       </c>
       <c r="C148" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A148)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A148)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A148)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A148)</f>
+        <v>41480</v>
       </c>
       <c r="D148" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A148)</f>
@@ -27028,8 +27028,8 @@
         <v>#N/A</v>
       </c>
       <c r="C149" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A149)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A149)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A149)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A149)</f>
+        <v>41480</v>
       </c>
       <c r="D149" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A149)</f>
@@ -27089,8 +27089,8 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27144,7 +27144,7 @@
         <v>372</v>
       </c>
       <c r="C2" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A2)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A2)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A2)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="20">
@@ -27178,7 +27178,8 @@
         <v>236</v>
       </c>
       <c r="C3" s="20">
-        <v>180</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A3)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A3)</f>
+        <v>0</v>
       </c>
       <c r="D3" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A3)</f>
@@ -27186,15 +27187,15 @@
       </c>
       <c r="E3" s="20">
         <f t="shared" si="0"/>
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="F3" s="20">
         <f t="shared" ref="F3:F66" si="2">IF(ISNA(E3),0,IF(AND(E3&gt;15,E3&lt;66),0.01,IF(E3&gt;316,6,ROUNDDOWN((E3-16)/50,0))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -27211,7 +27212,7 @@
         <v>332</v>
       </c>
       <c r="C4" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
         <v>0</v>
       </c>
       <c r="D4" s="20">
@@ -27241,7 +27242,7 @@
         <v>291</v>
       </c>
       <c r="C5" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A5)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A5)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A5)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A5)</f>
         <v>0</v>
       </c>
       <c r="D5" s="20">
@@ -27271,7 +27272,7 @@
         <v>281</v>
       </c>
       <c r="C6" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A6)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A6)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A6)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A6)</f>
         <v>0</v>
       </c>
       <c r="D6" s="20">
@@ -27301,7 +27302,7 @@
         <v>242</v>
       </c>
       <c r="C7" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A7)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A7)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A7)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A7)</f>
         <v>0</v>
       </c>
       <c r="D7" s="20">
@@ -27331,7 +27332,7 @@
         <v>239</v>
       </c>
       <c r="C8" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A8)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A8)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A8)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A8)</f>
         <v>0</v>
       </c>
       <c r="D8" s="20">
@@ -27361,7 +27362,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
         <v>0</v>
       </c>
       <c r="D9" s="20">
@@ -27391,7 +27392,7 @@
         <v>223</v>
       </c>
       <c r="C10" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
         <v>0</v>
       </c>
       <c r="D10" s="20">
@@ -27421,7 +27422,7 @@
         <v>176</v>
       </c>
       <c r="C11" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A11)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A11)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A11)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A11)</f>
         <v>0</v>
       </c>
       <c r="D11" s="20">
@@ -27451,7 +27452,7 @@
         <v>168</v>
       </c>
       <c r="C12" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
         <v>0</v>
       </c>
       <c r="D12" s="20">
@@ -27481,7 +27482,7 @@
         <v>198</v>
       </c>
       <c r="C13" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
         <v>0</v>
       </c>
       <c r="D13" s="20">
@@ -27511,7 +27512,7 @@
         <v>209</v>
       </c>
       <c r="C14" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A14)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A14)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A14)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A14)</f>
         <v>0</v>
       </c>
       <c r="D14" s="20">
@@ -27541,7 +27542,7 @@
         <v>164</v>
       </c>
       <c r="C15" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A15)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A15)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A15)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A15)</f>
         <v>0</v>
       </c>
       <c r="D15" s="20">
@@ -27571,7 +27572,7 @@
         <v>125</v>
       </c>
       <c r="C16" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A16)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A16)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A16)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A16)</f>
         <v>0</v>
       </c>
       <c r="D16" s="20">
@@ -27601,7 +27602,7 @@
         <v>144</v>
       </c>
       <c r="C17" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A17)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A17)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A17)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A17)</f>
         <v>0</v>
       </c>
       <c r="D17" s="20">
@@ -27631,7 +27632,7 @@
         <v>130</v>
       </c>
       <c r="C18" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
         <v>0</v>
       </c>
       <c r="D18" s="20">
@@ -27661,7 +27662,7 @@
         <v>142</v>
       </c>
       <c r="C19" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A19)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A19)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A19)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A19)</f>
         <v>0</v>
       </c>
       <c r="D19" s="20">
@@ -27691,7 +27692,7 @@
         <v>116</v>
       </c>
       <c r="C20" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A20)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A20)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A20)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A20)</f>
         <v>0</v>
       </c>
       <c r="D20" s="20">
@@ -27721,7 +27722,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A21)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A21)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A21)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A21)</f>
         <v>0</v>
       </c>
       <c r="D21" s="20">
@@ -27751,7 +27752,7 @@
         <v>149</v>
       </c>
       <c r="C22" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A22)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A22)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A22)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A22)</f>
         <v>0</v>
       </c>
       <c r="D22" s="20">
@@ -27781,7 +27782,7 @@
         <v>132</v>
       </c>
       <c r="C23" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A23)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A23)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A23)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A23)</f>
         <v>0</v>
       </c>
       <c r="D23" s="20">
@@ -27811,7 +27812,7 @@
         <v>153</v>
       </c>
       <c r="C24" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
         <v>0</v>
       </c>
       <c r="D24" s="20">
@@ -27841,7 +27842,7 @@
         <v>131</v>
       </c>
       <c r="C25" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A25)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A25)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A25)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A25)</f>
         <v>0</v>
       </c>
       <c r="D25" s="20">
@@ -27871,7 +27872,7 @@
         <v>148</v>
       </c>
       <c r="C26" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A26)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A26)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A26)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A26)</f>
         <v>0</v>
       </c>
       <c r="D26" s="20">
@@ -27901,7 +27902,7 @@
         <v>105</v>
       </c>
       <c r="C27" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A27)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A27)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A27)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A27)</f>
         <v>0</v>
       </c>
       <c r="D27" s="20">
@@ -27931,7 +27932,7 @@
         <v>105</v>
       </c>
       <c r="C28" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A28)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A28)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A28)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A28)</f>
         <v>0</v>
       </c>
       <c r="D28" s="20">
@@ -27961,7 +27962,7 @@
         <v>107</v>
       </c>
       <c r="C29" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A29)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A29)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A29)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A29)</f>
         <v>0</v>
       </c>
       <c r="D29" s="20">
@@ -27991,7 +27992,7 @@
         <v>98</v>
       </c>
       <c r="C30" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A30)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A30)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A30)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A30)</f>
         <v>0</v>
       </c>
       <c r="D30" s="20">
@@ -28021,7 +28022,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A31)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A31)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A31)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A31)</f>
         <v>0</v>
       </c>
       <c r="D31" s="20">
@@ -28051,7 +28052,7 @@
         <v>70</v>
       </c>
       <c r="C32" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A32)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A32)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A32)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A32)</f>
         <v>0</v>
       </c>
       <c r="D32" s="20">
@@ -28081,7 +28082,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A33)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A33)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A33)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A33)</f>
         <v>0</v>
       </c>
       <c r="D33" s="20">
@@ -28111,7 +28112,7 @@
         <v>110</v>
       </c>
       <c r="C34" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A34)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A34)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A34)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A34)</f>
         <v>0</v>
       </c>
       <c r="D34" s="20">
@@ -28141,7 +28142,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A35)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A35)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A35)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A35)</f>
         <v>0</v>
       </c>
       <c r="D35" s="20">
@@ -28171,7 +28172,7 @@
         <v>102</v>
       </c>
       <c r="C36" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A36)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A36)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A36)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A36)</f>
         <v>0</v>
       </c>
       <c r="D36" s="20">
@@ -28201,7 +28202,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A37)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A37)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A37)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A37)</f>
         <v>0</v>
       </c>
       <c r="D37" s="20">
@@ -28231,7 +28232,7 @@
         <v>105</v>
       </c>
       <c r="C38" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A38)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A38)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A38)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A38)</f>
         <v>0</v>
       </c>
       <c r="D38" s="20">
@@ -28261,7 +28262,7 @@
         <v>97</v>
       </c>
       <c r="C39" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A39)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A39)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A39)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A39)</f>
         <v>0</v>
       </c>
       <c r="D39" s="20">
@@ -28291,7 +28292,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A40)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A40)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A40)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A40)</f>
         <v>0</v>
       </c>
       <c r="D40" s="20">
@@ -28321,7 +28322,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A41)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A41)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A41)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A41)</f>
         <v>0</v>
       </c>
       <c r="D41" s="20">
@@ -28351,7 +28352,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A42)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A42)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A42)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A42)</f>
         <v>0</v>
       </c>
       <c r="D42" s="20">
@@ -28381,7 +28382,7 @@
         <v>35</v>
       </c>
       <c r="C43" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A43)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A43)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A43)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A43)</f>
         <v>0</v>
       </c>
       <c r="D43" s="20">
@@ -28411,7 +28412,7 @@
         <v>63</v>
       </c>
       <c r="C44" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A44)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A44)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A44)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A44)</f>
         <v>0</v>
       </c>
       <c r="D44" s="20">
@@ -28441,7 +28442,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A45)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A45)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A45)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A45)</f>
         <v>0</v>
       </c>
       <c r="D45" s="20">
@@ -28471,7 +28472,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A46)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A46)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A46)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A46)</f>
         <v>0</v>
       </c>
       <c r="D46" s="20">
@@ -28501,7 +28502,7 @@
         <v>19</v>
       </c>
       <c r="C47" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A47)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A47)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A47)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A47)</f>
         <v>0</v>
       </c>
       <c r="D47" s="20">
@@ -28531,7 +28532,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A48)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A48)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A48)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A48)</f>
         <v>0</v>
       </c>
       <c r="D48" s="20">
@@ -28561,7 +28562,7 @@
         <v>19</v>
       </c>
       <c r="C49" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A49)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A49)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A49)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A49)</f>
         <v>0</v>
       </c>
       <c r="D49" s="20">
@@ -28591,7 +28592,7 @@
         <v>61</v>
       </c>
       <c r="C50" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A50)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A50)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A50)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A50)</f>
         <v>0</v>
       </c>
       <c r="D50" s="20">
@@ -28621,7 +28622,7 @@
         <v>23</v>
       </c>
       <c r="C51" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A51)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A51)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A51)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A51)</f>
         <v>0</v>
       </c>
       <c r="D51" s="20">
@@ -28651,7 +28652,7 @@
         <v>19</v>
       </c>
       <c r="C52" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A52)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A52)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A52)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A52)</f>
         <v>0</v>
       </c>
       <c r="D52" s="20">
@@ -28681,7 +28682,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A53)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A53)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A53)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A53)</f>
         <v>0</v>
       </c>
       <c r="D53" s="20">
@@ -28711,7 +28712,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A54)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A54)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A54)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A54)</f>
         <v>0</v>
       </c>
       <c r="D54" s="20">
@@ -28741,7 +28742,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A55)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A55)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A55)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A55)</f>
         <v>0</v>
       </c>
       <c r="D55" s="20">
@@ -28771,7 +28772,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A56)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A56)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A56)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A56)</f>
         <v>0</v>
       </c>
       <c r="D56" s="20">
@@ -28801,7 +28802,7 @@
         <v>19</v>
       </c>
       <c r="C57" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A57)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A57)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A57)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A57)</f>
         <v>0</v>
       </c>
       <c r="D57" s="20">
@@ -28831,7 +28832,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A58)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A58)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A58)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A58)</f>
         <v>0</v>
       </c>
       <c r="D58" s="20">
@@ -28861,7 +28862,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A59)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A59)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A59)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A59)</f>
         <v>0</v>
       </c>
       <c r="D59" s="20">
@@ -28891,7 +28892,7 @@
         <v>38</v>
       </c>
       <c r="C60" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A60)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A60)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A60)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A60)</f>
         <v>0</v>
       </c>
       <c r="D60" s="20">
@@ -28921,7 +28922,7 @@
         <v>19</v>
       </c>
       <c r="C61" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A61)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A61)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A61)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A61)</f>
         <v>0</v>
       </c>
       <c r="D61" s="20">
@@ -28951,7 +28952,7 @@
         <v>48</v>
       </c>
       <c r="C62" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A62)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A62)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A62)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A62)</f>
         <v>0</v>
       </c>
       <c r="D62" s="20">
@@ -28981,7 +28982,7 @@
         <v>44</v>
       </c>
       <c r="C63" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A63)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A63)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A63)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A63)</f>
         <v>0</v>
       </c>
       <c r="D63" s="20">
@@ -29011,7 +29012,7 @@
         <v>24</v>
       </c>
       <c r="C64" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A64)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A64)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A64)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A64)</f>
         <v>0</v>
       </c>
       <c r="D64" s="20">
@@ -29041,7 +29042,7 @@
         <v>29</v>
       </c>
       <c r="C65" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A65)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A65)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A65)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A65)</f>
         <v>0</v>
       </c>
       <c r="D65" s="20">
@@ -29071,7 +29072,7 @@
         <v>24</v>
       </c>
       <c r="C66" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A66)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A66)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A66)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A66)</f>
         <v>0</v>
       </c>
       <c r="D66" s="20">
@@ -29101,7 +29102,7 @@
         <v>34</v>
       </c>
       <c r="C67" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A67)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A67)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A67)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A67)</f>
         <v>0</v>
       </c>
       <c r="D67" s="20">
@@ -29131,7 +29132,7 @@
         <v>24</v>
       </c>
       <c r="C68" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A68)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A68)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A68)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A68)</f>
         <v>0</v>
       </c>
       <c r="D68" s="20">
@@ -29161,7 +29162,7 @@
         <v>23</v>
       </c>
       <c r="C69" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A69)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A69)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A69)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A69)</f>
         <v>0</v>
       </c>
       <c r="D69" s="20">
@@ -29191,7 +29192,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A70)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A70)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A70)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A70)</f>
         <v>0</v>
       </c>
       <c r="D70" s="20">
@@ -29221,7 +29222,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A71)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A71)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A71)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A71)</f>
         <v>0</v>
       </c>
       <c r="D71" s="20">
@@ -29251,7 +29252,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A72)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A72)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A72)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A72)</f>
         <v>0</v>
       </c>
       <c r="D72" s="20">
@@ -29281,7 +29282,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A73)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A73)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A73)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A73)</f>
         <v>0</v>
       </c>
       <c r="D73" s="20">
@@ -29311,7 +29312,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A74)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A74)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A74)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A74)</f>
         <v>0</v>
       </c>
       <c r="D74" s="20">
@@ -29341,7 +29342,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A75)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A75)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A75)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A75)</f>
         <v>0</v>
       </c>
       <c r="D75" s="20">
@@ -29371,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A76)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A76)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A76)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A76)</f>
         <v>0</v>
       </c>
       <c r="D76" s="20">
@@ -29401,7 +29402,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A77)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A77)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A77)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A77)</f>
         <v>0</v>
       </c>
       <c r="D77" s="20">
@@ -29431,7 +29432,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A78)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A78)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A78)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A78)</f>
         <v>0</v>
       </c>
       <c r="D78" s="20">
@@ -29461,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A79)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A79)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A79)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A79)</f>
         <v>0</v>
       </c>
       <c r="D79" s="20">
@@ -29491,7 +29492,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A80)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A80)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A80)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A80)</f>
         <v>0</v>
       </c>
       <c r="D80" s="20">
@@ -29521,7 +29522,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A81)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A81)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A81)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A81)</f>
         <v>0</v>
       </c>
       <c r="D81" s="20">
@@ -29551,7 +29552,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A82)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A82)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A82)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A82)</f>
         <v>0</v>
       </c>
       <c r="D82" s="20">
@@ -29581,7 +29582,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A83)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A83)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A83)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A83)</f>
         <v>0</v>
       </c>
       <c r="D83" s="20">
@@ -29611,7 +29612,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A84)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A84)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A84)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A84)</f>
         <v>0</v>
       </c>
       <c r="D84" s="20">
@@ -29641,7 +29642,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A85)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A85)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A85)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A85)</f>
         <v>0</v>
       </c>
       <c r="D85" s="20">
@@ -29671,7 +29672,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A86)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A86)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A86)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A86)</f>
         <v>0</v>
       </c>
       <c r="D86" s="20">
@@ -29701,7 +29702,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A87)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A87)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A87)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A87)</f>
         <v>0</v>
       </c>
       <c r="D87" s="20">
@@ -29731,7 +29732,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A88)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A88)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A88)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A88)</f>
         <v>0</v>
       </c>
       <c r="D88" s="20">
@@ -29761,7 +29762,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A89)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A89)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A89)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A89)</f>
         <v>0</v>
       </c>
       <c r="D89" s="20">
@@ -29791,7 +29792,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A90)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A90)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A90)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A90)</f>
         <v>0</v>
       </c>
       <c r="D90" s="20">
@@ -29821,7 +29822,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A91)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A91)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A91)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A91)</f>
         <v>0</v>
       </c>
       <c r="D91" s="20">
@@ -29851,7 +29852,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A92)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A92)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A92)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A92)</f>
         <v>0</v>
       </c>
       <c r="D92" s="20">
@@ -29881,7 +29882,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A93)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A93)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A93)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A93)</f>
         <v>0</v>
       </c>
       <c r="D93" s="20">
@@ -29911,7 +29912,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A94)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A94)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A94)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A94)</f>
         <v>0</v>
       </c>
       <c r="D94" s="20">
@@ -29941,7 +29942,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A95)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A95)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A95)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A95)</f>
         <v>0</v>
       </c>
       <c r="D95" s="20">
@@ -29971,7 +29972,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A96)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A96)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A96)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A96)</f>
         <v>0</v>
       </c>
       <c r="D96" s="20">
@@ -30001,7 +30002,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A97)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A97)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A97)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A97)</f>
         <v>0</v>
       </c>
       <c r="D97" s="20">
@@ -30031,7 +30032,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A98)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A98)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A98)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A98)</f>
         <v>0</v>
       </c>
       <c r="D98" s="20">
@@ -30061,7 +30062,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A99)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A99)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A99)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A99)</f>
         <v>0</v>
       </c>
       <c r="D99" s="20">
@@ -30091,7 +30092,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A100)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A100)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A100)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A100)</f>
         <v>0</v>
       </c>
       <c r="D100" s="20">
@@ -30121,7 +30122,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A101)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A101)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A101)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A101)</f>
         <v>0</v>
       </c>
       <c r="D101" s="20">
@@ -30151,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A102)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A102)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A102)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A102)</f>
         <v>0</v>
       </c>
       <c r="D102" s="20">
@@ -30181,7 +30182,7 @@
         <v>14</v>
       </c>
       <c r="C103" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A103)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A103)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A103)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A103)</f>
         <v>0</v>
       </c>
       <c r="D103" s="20">
@@ -30211,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A104)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A104)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A104)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A104)</f>
         <v>0</v>
       </c>
       <c r="D104" s="20">
@@ -30241,7 +30242,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A105)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A105)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A105)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A105)</f>
         <v>0</v>
       </c>
       <c r="D105" s="20">
@@ -30271,7 +30272,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A106)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A106)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A106)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A106)</f>
         <v>0</v>
       </c>
       <c r="D106" s="20">
@@ -30301,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A107)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A107)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A107)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A107)</f>
         <v>0</v>
       </c>
       <c r="D107" s="20">
@@ -30331,7 +30332,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A108)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A108)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A108)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A108)</f>
         <v>0</v>
       </c>
       <c r="D108" s="20">
@@ -30361,7 +30362,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A109)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A109)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A109)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A109)</f>
         <v>0</v>
       </c>
       <c r="D109" s="20">
@@ -30391,7 +30392,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A110)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A110)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A110)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A110)</f>
         <v>0</v>
       </c>
       <c r="D110" s="20">
@@ -30421,7 +30422,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A111)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A111)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A111)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A111)</f>
         <v>0</v>
       </c>
       <c r="D111" s="20">
@@ -30451,7 +30452,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A112)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A112)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A112)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A112)</f>
         <v>0</v>
       </c>
       <c r="D112" s="20">
@@ -30481,7 +30482,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A113)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A113)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A113)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A113)</f>
         <v>0</v>
       </c>
       <c r="D113" s="20">
@@ -30511,7 +30512,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A114)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A114)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A114)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A114)</f>
         <v>0</v>
       </c>
       <c r="D114" s="20">
@@ -30541,7 +30542,7 @@
         <v>9</v>
       </c>
       <c r="C115" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A115)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A115)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A115)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A115)</f>
         <v>0</v>
       </c>
       <c r="D115" s="20">
@@ -30571,7 +30572,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A116)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A116)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A116)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A116)</f>
         <v>0</v>
       </c>
       <c r="D116" s="20">
@@ -30601,7 +30602,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A117)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A117)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A117)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A117)</f>
         <v>0</v>
       </c>
       <c r="D117" s="20">
@@ -30631,7 +30632,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A118)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A118)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A118)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A118)</f>
         <v>0</v>
       </c>
       <c r="D118" s="20">
@@ -30661,7 +30662,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A119)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A119)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A119)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A119)</f>
         <v>0</v>
       </c>
       <c r="D119" s="20">
@@ -30691,7 +30692,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A120)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A120)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A120)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A120)</f>
         <v>0</v>
       </c>
       <c r="D120" s="20">
@@ -30721,7 +30722,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A121)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A121)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A121)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A121)</f>
         <v>0</v>
       </c>
       <c r="D121" s="20">
@@ -30751,7 +30752,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A122)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A122)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A122)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A122)</f>
         <v>0</v>
       </c>
       <c r="D122" s="20">
@@ -30781,7 +30782,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A123)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A123)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A123)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A123)</f>
         <v>0</v>
       </c>
       <c r="D123" s="20">
@@ -30811,7 +30812,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A124)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A124)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A124)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A124)</f>
         <v>0</v>
       </c>
       <c r="D124" s="20">
@@ -30841,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A125)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A125)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A125)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A125)</f>
         <v>0</v>
       </c>
       <c r="D125" s="20">
@@ -30871,7 +30872,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A126)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A126)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A126)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A126)</f>
         <v>0</v>
       </c>
       <c r="D126" s="20">
@@ -30901,7 +30902,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A127)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A127)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A127)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A127)</f>
         <v>0</v>
       </c>
       <c r="D127" s="20">
@@ -30931,7 +30932,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A128)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A128)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A128)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A128)</f>
         <v>0</v>
       </c>
       <c r="D128" s="20">
@@ -30961,7 +30962,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A129)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A129)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A129)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A129)</f>
         <v>0</v>
       </c>
       <c r="D129" s="20">
@@ -30991,7 +30992,7 @@
         <v>0</v>
       </c>
       <c r="C130" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A130)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A130)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A130)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A130)</f>
         <v>0</v>
       </c>
       <c r="D130" s="20">
@@ -31021,7 +31022,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A131)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A131)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A131)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A131)</f>
         <v>0</v>
       </c>
       <c r="D131" s="20">
@@ -31051,7 +31052,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A132)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A132)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A132)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A132)</f>
         <v>0</v>
       </c>
       <c r="D132" s="20">
@@ -31081,7 +31082,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A133)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A133)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A133)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A133)</f>
         <v>0</v>
       </c>
       <c r="D133" s="20">
@@ -31111,7 +31112,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A134)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A134)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A134)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A134)</f>
         <v>0</v>
       </c>
       <c r="D134" s="20">
@@ -31141,7 +31142,7 @@
         <v>0</v>
       </c>
       <c r="C135" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A135)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A135)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A135)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A135)</f>
         <v>0</v>
       </c>
       <c r="D135" s="20">
@@ -31171,7 +31172,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A136)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A136)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A136)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A136)</f>
         <v>0</v>
       </c>
       <c r="D136" s="20">
@@ -31201,7 +31202,7 @@
         <v>0</v>
       </c>
       <c r="C137" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A137)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A137)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A137)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A137)</f>
         <v>0</v>
       </c>
       <c r="D137" s="20">
@@ -31231,7 +31232,7 @@
         <v>0</v>
       </c>
       <c r="C138" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A138)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A138)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A138)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A138)</f>
         <v>0</v>
       </c>
       <c r="D138" s="20">
@@ -31261,7 +31262,7 @@
         <v>0</v>
       </c>
       <c r="C139" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A139)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A139)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A139)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A139)</f>
         <v>0</v>
       </c>
       <c r="D139" s="20">
@@ -31291,7 +31292,7 @@
         <v>4</v>
       </c>
       <c r="C140" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A140)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A140)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A140)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A140)</f>
         <v>0</v>
       </c>
       <c r="D140" s="20">
@@ -31321,7 +31322,7 @@
         <v>0</v>
       </c>
       <c r="C141" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A141)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A141)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A141)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A141)</f>
         <v>0</v>
       </c>
       <c r="D141" s="20">
@@ -31351,7 +31352,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A142)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A142)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A142)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A142)</f>
         <v>0</v>
       </c>
       <c r="D142" s="20">
@@ -31381,7 +31382,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A143)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A143)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A143)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A143)</f>
         <v>0</v>
       </c>
       <c r="D143" s="20">
@@ -31411,7 +31412,7 @@
         <v>0</v>
       </c>
       <c r="C144" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A144)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A144)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A144)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A144)</f>
         <v>0</v>
       </c>
       <c r="D144" s="20">
@@ -31441,7 +31442,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A145)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A145)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A145)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A145)</f>
         <v>0</v>
       </c>
       <c r="D145" s="20">
@@ -31471,7 +31472,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A146)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A146)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A146)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A146)</f>
         <v>0</v>
       </c>
       <c r="D146" s="20">
@@ -31501,7 +31502,7 @@
         <v>4</v>
       </c>
       <c r="C147" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A147)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A147)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A147)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A147)</f>
         <v>0</v>
       </c>
       <c r="D147" s="20">
@@ -31531,7 +31532,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A148)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A148)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A148)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A148)</f>
         <v>0</v>
       </c>
       <c r="D148" s="20">
@@ -31561,8 +31562,8 @@
         <v>#N/A</v>
       </c>
       <c r="C149" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A149)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A149)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A149)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A149)</f>
+        <v>41480</v>
       </c>
       <c r="D149" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A149)</f>
@@ -31628,8 +31629,8 @@
   <dimension ref="A1:K149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N148" sqref="N148"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31679,7 +31680,7 @@
         <v>430</v>
       </c>
       <c r="C2" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A2)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A2)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A2)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="20">
@@ -31711,7 +31712,7 @@
         <v>426</v>
       </c>
       <c r="C3" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A3)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A3)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A3)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A3)</f>
         <v>0</v>
       </c>
       <c r="D3" s="20">
@@ -31741,8 +31742,8 @@
         <v>426</v>
       </c>
       <c r="C4" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
-        <v>40</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
+        <v>-40</v>
       </c>
       <c r="D4" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A4)</f>
@@ -31750,7 +31751,7 @@
       </c>
       <c r="E4" s="20">
         <f t="shared" si="0"/>
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="F4" s="20">
         <f t="shared" si="2"/>
@@ -31758,7 +31759,7 @@
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5">
@@ -31771,7 +31772,7 @@
         <v>318</v>
       </c>
       <c r="C5" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A5)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A5)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A5)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A5)</f>
         <v>0</v>
       </c>
       <c r="D5" s="20">
@@ -31801,7 +31802,7 @@
         <v>302</v>
       </c>
       <c r="C6" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A6)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A6)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A6)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A6)</f>
         <v>0</v>
       </c>
       <c r="D6" s="20">
@@ -31831,7 +31832,7 @@
         <v>305</v>
       </c>
       <c r="C7" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A7)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A7)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A7)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A7)</f>
         <v>0</v>
       </c>
       <c r="D7" s="20">
@@ -31861,7 +31862,7 @@
         <v>267</v>
       </c>
       <c r="C8" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A8)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A8)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A8)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A8)</f>
         <v>0</v>
       </c>
       <c r="D8" s="20">
@@ -31891,7 +31892,7 @@
         <v>271</v>
       </c>
       <c r="C9" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
         <v>0</v>
       </c>
       <c r="D9" s="20">
@@ -31921,7 +31922,7 @@
         <v>233</v>
       </c>
       <c r="C10" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
         <v>0</v>
       </c>
       <c r="D10" s="20">
@@ -31951,7 +31952,7 @@
         <v>258</v>
       </c>
       <c r="C11" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A11)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A11)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A11)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A11)</f>
         <v>0</v>
       </c>
       <c r="D11" s="20">
@@ -31981,7 +31982,7 @@
         <v>251</v>
       </c>
       <c r="C12" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
         <v>0</v>
       </c>
       <c r="D12" s="20">
@@ -32011,7 +32012,7 @@
         <v>249</v>
       </c>
       <c r="C13" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
         <v>0</v>
       </c>
       <c r="D13" s="20">
@@ -32041,7 +32042,7 @@
         <v>218</v>
       </c>
       <c r="C14" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A14)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A14)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A14)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A14)</f>
         <v>0</v>
       </c>
       <c r="D14" s="20">
@@ -32071,7 +32072,7 @@
         <v>226</v>
       </c>
       <c r="C15" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A15)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A15)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A15)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A15)</f>
         <v>0</v>
       </c>
       <c r="D15" s="20">
@@ -32101,7 +32102,7 @@
         <v>260</v>
       </c>
       <c r="C16" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A16)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A16)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A16)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A16)</f>
         <v>0</v>
       </c>
       <c r="D16" s="20">
@@ -32131,7 +32132,7 @@
         <v>254</v>
       </c>
       <c r="C17" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A17)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A17)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A17)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A17)</f>
         <v>0</v>
       </c>
       <c r="D17" s="20">
@@ -32161,7 +32162,7 @@
         <v>242</v>
       </c>
       <c r="C18" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
         <v>0</v>
       </c>
       <c r="D18" s="20">
@@ -32191,7 +32192,7 @@
         <v>220</v>
       </c>
       <c r="C19" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A19)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A19)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A19)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A19)</f>
         <v>0</v>
       </c>
       <c r="D19" s="20">
@@ -32221,7 +32222,7 @@
         <v>221</v>
       </c>
       <c r="C20" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A20)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A20)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A20)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A20)</f>
         <v>0</v>
       </c>
       <c r="D20" s="20">
@@ -32251,7 +32252,7 @@
         <v>214</v>
       </c>
       <c r="C21" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A21)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A21)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A21)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A21)</f>
         <v>0</v>
       </c>
       <c r="D21" s="20">
@@ -32281,7 +32282,7 @@
         <v>196</v>
       </c>
       <c r="C22" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A22)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A22)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A22)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A22)</f>
         <v>0</v>
       </c>
       <c r="D22" s="20">
@@ -32311,7 +32312,7 @@
         <v>171</v>
       </c>
       <c r="C23" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A23)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A23)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A23)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A23)</f>
         <v>0</v>
       </c>
       <c r="D23" s="20">
@@ -32341,7 +32342,7 @@
         <v>193</v>
       </c>
       <c r="C24" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
         <v>0</v>
       </c>
       <c r="D24" s="20">
@@ -32371,7 +32372,7 @@
         <v>207</v>
       </c>
       <c r="C25" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A25)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A25)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A25)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A25)</f>
         <v>0</v>
       </c>
       <c r="D25" s="20">
@@ -32401,7 +32402,7 @@
         <v>204</v>
       </c>
       <c r="C26" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A26)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A26)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A26)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A26)</f>
         <v>0</v>
       </c>
       <c r="D26" s="20">
@@ -32431,7 +32432,7 @@
         <v>185</v>
       </c>
       <c r="C27" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A27)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A27)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A27)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A27)</f>
         <v>0</v>
       </c>
       <c r="D27" s="20">
@@ -32461,7 +32462,7 @@
         <v>192</v>
       </c>
       <c r="C28" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A28)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A28)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A28)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A28)</f>
         <v>0</v>
       </c>
       <c r="D28" s="20">
@@ -32491,7 +32492,7 @@
         <v>172</v>
       </c>
       <c r="C29" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A29)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A29)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A29)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A29)</f>
         <v>0</v>
       </c>
       <c r="D29" s="20">
@@ -32521,7 +32522,7 @@
         <v>193</v>
       </c>
       <c r="C30" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A30)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A30)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A30)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A30)</f>
         <v>0</v>
       </c>
       <c r="D30" s="20">
@@ -32551,7 +32552,7 @@
         <v>173</v>
       </c>
       <c r="C31" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A31)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A31)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A31)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A31)</f>
         <v>0</v>
       </c>
       <c r="D31" s="20">
@@ -32581,7 +32582,7 @@
         <v>126</v>
       </c>
       <c r="C32" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A32)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A32)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A32)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A32)</f>
         <v>0</v>
       </c>
       <c r="D32" s="20">
@@ -32611,7 +32612,7 @@
         <v>129</v>
       </c>
       <c r="C33" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A33)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A33)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A33)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A33)</f>
         <v>0</v>
       </c>
       <c r="D33" s="20">
@@ -32641,7 +32642,7 @@
         <v>161</v>
       </c>
       <c r="C34" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A34)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A34)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A34)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A34)</f>
         <v>0</v>
       </c>
       <c r="D34" s="20">
@@ -32671,7 +32672,7 @@
         <v>161</v>
       </c>
       <c r="C35" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A35)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A35)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A35)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A35)</f>
         <v>0</v>
       </c>
       <c r="D35" s="20">
@@ -32701,7 +32702,7 @@
         <v>122</v>
       </c>
       <c r="C36" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A36)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A36)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A36)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A36)</f>
         <v>0</v>
       </c>
       <c r="D36" s="20">
@@ -32731,7 +32732,7 @@
         <v>162</v>
       </c>
       <c r="C37" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A37)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A37)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A37)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A37)</f>
         <v>0</v>
       </c>
       <c r="D37" s="20">
@@ -32761,7 +32762,7 @@
         <v>128</v>
       </c>
       <c r="C38" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A38)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A38)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A38)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A38)</f>
         <v>0</v>
       </c>
       <c r="D38" s="20">
@@ -32791,7 +32792,7 @@
         <v>123</v>
       </c>
       <c r="C39" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A39)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A39)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A39)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A39)</f>
         <v>0</v>
       </c>
       <c r="D39" s="20">
@@ -32821,7 +32822,7 @@
         <v>140</v>
       </c>
       <c r="C40" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A40)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A40)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A40)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A40)</f>
         <v>0</v>
       </c>
       <c r="D40" s="20">
@@ -32851,7 +32852,7 @@
         <v>161</v>
       </c>
       <c r="C41" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A41)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A41)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A41)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A41)</f>
         <v>0</v>
       </c>
       <c r="D41" s="20">
@@ -32881,7 +32882,7 @@
         <v>156</v>
       </c>
       <c r="C42" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A42)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A42)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A42)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A42)</f>
         <v>0</v>
       </c>
       <c r="D42" s="20">
@@ -32911,7 +32912,7 @@
         <v>148</v>
       </c>
       <c r="C43" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A43)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A43)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A43)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A43)</f>
         <v>0</v>
       </c>
       <c r="D43" s="20">
@@ -32941,7 +32942,7 @@
         <v>157</v>
       </c>
       <c r="C44" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A44)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A44)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A44)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A44)</f>
         <v>0</v>
       </c>
       <c r="D44" s="20">
@@ -32971,7 +32972,7 @@
         <v>155</v>
       </c>
       <c r="C45" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A45)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A45)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A45)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A45)</f>
         <v>0</v>
       </c>
       <c r="D45" s="20">
@@ -33001,7 +33002,7 @@
         <v>137</v>
       </c>
       <c r="C46" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A46)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A46)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A46)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A46)</f>
         <v>0</v>
       </c>
       <c r="D46" s="20">
@@ -33031,7 +33032,7 @@
         <v>150</v>
       </c>
       <c r="C47" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A47)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A47)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A47)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A47)</f>
         <v>0</v>
       </c>
       <c r="D47" s="20">
@@ -33061,7 +33062,7 @@
         <v>117</v>
       </c>
       <c r="C48" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A48)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A48)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A48)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A48)</f>
         <v>0</v>
       </c>
       <c r="D48" s="20">
@@ -33091,7 +33092,7 @@
         <v>105</v>
       </c>
       <c r="C49" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A49)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A49)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A49)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A49)</f>
         <v>0</v>
       </c>
       <c r="D49" s="20">
@@ -33121,7 +33122,7 @@
         <v>79</v>
       </c>
       <c r="C50" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A50)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A50)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A50)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A50)</f>
         <v>0</v>
       </c>
       <c r="D50" s="20">
@@ -33151,7 +33152,7 @@
         <v>89</v>
       </c>
       <c r="C51" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A51)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A51)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A51)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A51)</f>
         <v>0</v>
       </c>
       <c r="D51" s="20">
@@ -33181,7 +33182,7 @@
         <v>74</v>
       </c>
       <c r="C52" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A52)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A52)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A52)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A52)</f>
         <v>0</v>
       </c>
       <c r="D52" s="20">
@@ -33211,7 +33212,7 @@
         <v>70</v>
       </c>
       <c r="C53" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A53)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A53)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A53)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A53)</f>
         <v>0</v>
       </c>
       <c r="D53" s="20">
@@ -33241,7 +33242,7 @@
         <v>70</v>
       </c>
       <c r="C54" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A54)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A54)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A54)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A54)</f>
         <v>0</v>
       </c>
       <c r="D54" s="20">
@@ -33271,7 +33272,7 @@
         <v>70</v>
       </c>
       <c r="C55" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A55)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A55)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A55)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A55)</f>
         <v>0</v>
       </c>
       <c r="D55" s="20">
@@ -33301,7 +33302,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A56)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A56)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A56)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A56)</f>
         <v>0</v>
       </c>
       <c r="D56" s="20">
@@ -33331,7 +33332,7 @@
         <v>68</v>
       </c>
       <c r="C57" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A57)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A57)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A57)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A57)</f>
         <v>0</v>
       </c>
       <c r="D57" s="20">
@@ -33361,7 +33362,7 @@
         <v>91</v>
       </c>
       <c r="C58" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A58)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A58)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A58)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A58)</f>
         <v>0</v>
       </c>
       <c r="D58" s="20">
@@ -33391,7 +33392,7 @@
         <v>104</v>
       </c>
       <c r="C59" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A59)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A59)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A59)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A59)</f>
         <v>0</v>
       </c>
       <c r="D59" s="20">
@@ -33421,7 +33422,7 @@
         <v>74</v>
       </c>
       <c r="C60" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A60)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A60)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A60)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A60)</f>
         <v>0</v>
       </c>
       <c r="D60" s="20">
@@ -33451,7 +33452,7 @@
         <v>79</v>
       </c>
       <c r="C61" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A61)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A61)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A61)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A61)</f>
         <v>0</v>
       </c>
       <c r="D61" s="20">
@@ -33481,7 +33482,7 @@
         <v>94</v>
       </c>
       <c r="C62" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A62)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A62)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A62)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A62)</f>
         <v>0</v>
       </c>
       <c r="D62" s="20">
@@ -33511,7 +33512,7 @@
         <v>92</v>
       </c>
       <c r="C63" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A63)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A63)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A63)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A63)</f>
         <v>0</v>
       </c>
       <c r="D63" s="20">
@@ -33541,7 +33542,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A64)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A64)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A64)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A64)</f>
         <v>0</v>
       </c>
       <c r="D64" s="20">
@@ -33571,7 +33572,7 @@
         <v>88</v>
       </c>
       <c r="C65" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A65)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A65)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A65)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A65)</f>
         <v>0</v>
       </c>
       <c r="D65" s="20">
@@ -33601,7 +33602,7 @@
         <v>107</v>
       </c>
       <c r="C66" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A66)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A66)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A66)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A66)</f>
         <v>0</v>
       </c>
       <c r="D66" s="20">
@@ -33631,7 +33632,7 @@
         <v>97</v>
       </c>
       <c r="C67" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A67)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A67)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A67)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A67)</f>
         <v>0</v>
       </c>
       <c r="D67" s="20">
@@ -33661,7 +33662,7 @@
         <v>29</v>
       </c>
       <c r="C68" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A68)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A68)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A68)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A68)</f>
         <v>0</v>
       </c>
       <c r="D68" s="20">
@@ -33691,7 +33692,7 @@
         <v>46</v>
       </c>
       <c r="C69" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A69)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A69)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A69)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A69)</f>
         <v>0</v>
       </c>
       <c r="D69" s="20">
@@ -33721,7 +33722,7 @@
         <v>20</v>
       </c>
       <c r="C70" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A70)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A70)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A70)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A70)</f>
         <v>0</v>
       </c>
       <c r="D70" s="20">
@@ -33751,7 +33752,7 @@
         <v>49</v>
       </c>
       <c r="C71" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A71)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A71)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A71)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A71)</f>
         <v>0</v>
       </c>
       <c r="D71" s="20">
@@ -33781,7 +33782,7 @@
         <v>51</v>
       </c>
       <c r="C72" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A72)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A72)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A72)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A72)</f>
         <v>0</v>
       </c>
       <c r="D72" s="20">
@@ -33811,7 +33812,7 @@
         <v>19</v>
       </c>
       <c r="C73" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A73)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A73)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A73)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A73)</f>
         <v>0</v>
       </c>
       <c r="D73" s="20">
@@ -33841,7 +33842,7 @@
         <v>44</v>
       </c>
       <c r="C74" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A74)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A74)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A74)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A74)</f>
         <v>0</v>
       </c>
       <c r="D74" s="20">
@@ -33871,7 +33872,7 @@
         <v>44</v>
       </c>
       <c r="C75" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A75)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A75)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A75)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A75)</f>
         <v>0</v>
       </c>
       <c r="D75" s="20">
@@ -33901,7 +33902,7 @@
         <v>19</v>
       </c>
       <c r="C76" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A76)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A76)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A76)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A76)</f>
         <v>0</v>
       </c>
       <c r="D76" s="20">
@@ -33931,7 +33932,7 @@
         <v>23</v>
       </c>
       <c r="C77" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A77)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A77)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A77)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A77)</f>
         <v>0</v>
       </c>
       <c r="D77" s="20">
@@ -33961,7 +33962,7 @@
         <v>19</v>
       </c>
       <c r="C78" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A78)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A78)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A78)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A78)</f>
         <v>0</v>
       </c>
       <c r="D78" s="20">
@@ -33991,7 +33992,7 @@
         <v>38</v>
       </c>
       <c r="C79" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A79)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A79)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A79)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A79)</f>
         <v>0</v>
       </c>
       <c r="D79" s="20">
@@ -34021,7 +34022,7 @@
         <v>59</v>
       </c>
       <c r="C80" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A80)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A80)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A80)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A80)</f>
         <v>0</v>
       </c>
       <c r="D80" s="20">
@@ -34051,7 +34052,7 @@
         <v>24</v>
       </c>
       <c r="C81" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A81)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A81)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A81)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A81)</f>
         <v>0</v>
       </c>
       <c r="D81" s="20">
@@ -34081,7 +34082,7 @@
         <v>44</v>
       </c>
       <c r="C82" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A82)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A82)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A82)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A82)</f>
         <v>0</v>
       </c>
       <c r="D82" s="20">
@@ -34111,7 +34112,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A83)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A83)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A83)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A83)</f>
         <v>0</v>
       </c>
       <c r="D83" s="20">
@@ -34141,7 +34142,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A84)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A84)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A84)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A84)</f>
         <v>0</v>
       </c>
       <c r="D84" s="20">
@@ -34171,7 +34172,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A85)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A85)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A85)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A85)</f>
         <v>0</v>
       </c>
       <c r="D85" s="20">
@@ -34201,7 +34202,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A86)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A86)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A86)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A86)</f>
         <v>0</v>
       </c>
       <c r="D86" s="20">
@@ -34231,7 +34232,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A87)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A87)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A87)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A87)</f>
         <v>0</v>
       </c>
       <c r="D87" s="20">
@@ -34261,7 +34262,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A88)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A88)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A88)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A88)</f>
         <v>0</v>
       </c>
       <c r="D88" s="20">
@@ -34291,7 +34292,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A89)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A89)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A89)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A89)</f>
         <v>0</v>
       </c>
       <c r="D89" s="20">
@@ -34321,7 +34322,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A90)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A90)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A90)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A90)</f>
         <v>0</v>
       </c>
       <c r="D90" s="20">
@@ -34351,7 +34352,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A91)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A91)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A91)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A91)</f>
         <v>0</v>
       </c>
       <c r="D91" s="20">
@@ -34381,7 +34382,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A92)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A92)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A92)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A92)</f>
         <v>0</v>
       </c>
       <c r="D92" s="20">
@@ -34411,7 +34412,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A93)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A93)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A93)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A93)</f>
         <v>0</v>
       </c>
       <c r="D93" s="20">
@@ -34441,7 +34442,7 @@
         <v>14</v>
       </c>
       <c r="C94" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A94)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A94)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A94)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A94)</f>
         <v>0</v>
       </c>
       <c r="D94" s="20">
@@ -34471,7 +34472,7 @@
         <v>4</v>
       </c>
       <c r="C95" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A95)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A95)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A95)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A95)</f>
         <v>0</v>
       </c>
       <c r="D95" s="20">
@@ -34501,7 +34502,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A96)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A96)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A96)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A96)</f>
         <v>0</v>
       </c>
       <c r="D96" s="20">
@@ -34531,7 +34532,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A97)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A97)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A97)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A97)</f>
         <v>0</v>
       </c>
       <c r="D97" s="20">
@@ -34561,7 +34562,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A98)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A98)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A98)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A98)</f>
         <v>0</v>
       </c>
       <c r="D98" s="20">
@@ -34591,7 +34592,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A99)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A99)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A99)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A99)</f>
         <v>0</v>
       </c>
       <c r="D99" s="20">
@@ -34621,7 +34622,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A100)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A100)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A100)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A100)</f>
         <v>0</v>
       </c>
       <c r="D100" s="20">
@@ -34651,7 +34652,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A101)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A101)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A101)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A101)</f>
         <v>0</v>
       </c>
       <c r="D101" s="20">
@@ -34681,7 +34682,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A102)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A102)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A102)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A102)</f>
         <v>0</v>
       </c>
       <c r="D102" s="20">
@@ -34711,7 +34712,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A103)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A103)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A103)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A103)</f>
         <v>0</v>
       </c>
       <c r="D103" s="20">
@@ -34741,7 +34742,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A104)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A104)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A104)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A104)</f>
         <v>0</v>
       </c>
       <c r="D104" s="20">
@@ -34771,7 +34772,7 @@
         <v>9</v>
       </c>
       <c r="C105" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A105)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A105)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A105)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A105)</f>
         <v>0</v>
       </c>
       <c r="D105" s="20">
@@ -34801,7 +34802,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A106)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A106)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A106)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A106)</f>
         <v>0</v>
       </c>
       <c r="D106" s="20">
@@ -34831,7 +34832,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A107)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A107)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A107)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A107)</f>
         <v>0</v>
       </c>
       <c r="D107" s="20">
@@ -34861,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A108)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A108)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A108)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A108)</f>
         <v>0</v>
       </c>
       <c r="D108" s="20">
@@ -34891,7 +34892,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A109)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A109)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A109)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A109)</f>
         <v>0</v>
       </c>
       <c r="D109" s="20">
@@ -34921,7 +34922,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A110)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A110)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A110)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A110)</f>
         <v>0</v>
       </c>
       <c r="D110" s="20">
@@ -34951,7 +34952,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A111)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A111)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A111)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A111)</f>
         <v>0</v>
       </c>
       <c r="D111" s="20">
@@ -34981,7 +34982,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A112)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A112)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A112)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A112)</f>
         <v>0</v>
       </c>
       <c r="D112" s="20">
@@ -35011,7 +35012,7 @@
         <v>9</v>
       </c>
       <c r="C113" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A113)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A113)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A113)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A113)</f>
         <v>0</v>
       </c>
       <c r="D113" s="20">
@@ -35041,7 +35042,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A114)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A114)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A114)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A114)</f>
         <v>0</v>
       </c>
       <c r="D114" s="20">
@@ -35071,7 +35072,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A115)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A115)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A115)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A115)</f>
         <v>0</v>
       </c>
       <c r="D115" s="20">
@@ -35101,7 +35102,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A116)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A116)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A116)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A116)</f>
         <v>0</v>
       </c>
       <c r="D116" s="20">
@@ -35131,7 +35132,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A117)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A117)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A117)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A117)</f>
         <v>0</v>
       </c>
       <c r="D117" s="20">
@@ -35161,7 +35162,7 @@
         <v>8</v>
       </c>
       <c r="C118" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A118)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A118)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A118)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A118)</f>
         <v>0</v>
       </c>
       <c r="D118" s="20">
@@ -35191,7 +35192,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A119)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A119)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A119)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A119)</f>
         <v>0</v>
       </c>
       <c r="D119" s="20">
@@ -35221,7 +35222,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A120)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A120)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A120)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A120)</f>
         <v>0</v>
       </c>
       <c r="D120" s="20">
@@ -35251,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A121)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A121)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A121)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A121)</f>
         <v>0</v>
       </c>
       <c r="D121" s="20">
@@ -35281,7 +35282,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A122)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A122)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A122)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A122)</f>
         <v>0</v>
       </c>
       <c r="D122" s="20">
@@ -35311,7 +35312,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A123)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A123)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A123)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A123)</f>
         <v>0</v>
       </c>
       <c r="D123" s="20">
@@ -35341,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A124)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A124)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A124)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A124)</f>
         <v>0</v>
       </c>
       <c r="D124" s="20">
@@ -35371,7 +35372,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A125)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A125)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A125)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A125)</f>
         <v>0</v>
       </c>
       <c r="D125" s="20">
@@ -35401,7 +35402,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A126)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A126)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A126)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A126)</f>
         <v>0</v>
       </c>
       <c r="D126" s="20">
@@ -35431,7 +35432,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A127)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A127)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A127)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A127)</f>
         <v>0</v>
       </c>
       <c r="D127" s="20">
@@ -35461,7 +35462,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A128)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A128)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A128)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A128)</f>
         <v>0</v>
       </c>
       <c r="D128" s="20">
@@ -35491,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A129)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A129)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A129)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A129)</f>
         <v>0</v>
       </c>
       <c r="D129" s="20">
@@ -35521,7 +35522,7 @@
         <v>13</v>
       </c>
       <c r="C130" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A130)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A130)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A130)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A130)</f>
         <v>0</v>
       </c>
       <c r="D130" s="20">
@@ -35551,7 +35552,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A131)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A131)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A131)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A131)</f>
         <v>0</v>
       </c>
       <c r="D131" s="20">
@@ -35581,7 +35582,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A132)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A132)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A132)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A132)</f>
         <v>0</v>
       </c>
       <c r="D132" s="20">
@@ -35611,7 +35612,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A133)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A133)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A133)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A133)</f>
         <v>0</v>
       </c>
       <c r="D133" s="20">
@@ -35641,7 +35642,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A134)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A134)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A134)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A134)</f>
         <v>0</v>
       </c>
       <c r="D134" s="20">
@@ -35671,7 +35672,7 @@
         <v>0</v>
       </c>
       <c r="C135" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A135)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A135)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A135)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A135)</f>
         <v>0</v>
       </c>
       <c r="D135" s="20">
@@ -35701,7 +35702,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A136)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A136)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A136)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A136)</f>
         <v>0</v>
       </c>
       <c r="D136" s="20">
@@ -35731,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="C137" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A137)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A137)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A137)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A137)</f>
         <v>0</v>
       </c>
       <c r="D137" s="20">
@@ -35761,7 +35762,7 @@
         <v>0</v>
       </c>
       <c r="C138" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A138)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A138)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A138)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A138)</f>
         <v>0</v>
       </c>
       <c r="D138" s="20">
@@ -35791,7 +35792,7 @@
         <v>0</v>
       </c>
       <c r="C139" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A139)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A139)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A139)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A139)</f>
         <v>0</v>
       </c>
       <c r="D139" s="20">
@@ -35821,7 +35822,7 @@
         <v>0</v>
       </c>
       <c r="C140" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A140)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A140)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A140)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A140)</f>
         <v>0</v>
       </c>
       <c r="D140" s="20">
@@ -35851,7 +35852,7 @@
         <v>0</v>
       </c>
       <c r="C141" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A141)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A141)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A141)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A141)</f>
         <v>0</v>
       </c>
       <c r="D141" s="20">
@@ -35881,7 +35882,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A142)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A142)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A142)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A142)</f>
         <v>0</v>
       </c>
       <c r="D142" s="20">
@@ -35911,7 +35912,7 @@
         <v>4</v>
       </c>
       <c r="C143" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A143)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A143)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A143)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A143)</f>
         <v>0</v>
       </c>
       <c r="D143" s="20">
@@ -35941,7 +35942,7 @@
         <v>0</v>
       </c>
       <c r="C144" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A144)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A144)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A144)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A144)</f>
         <v>0</v>
       </c>
       <c r="D144" s="20">
@@ -35971,8 +35972,8 @@
         <v>#N/A</v>
       </c>
       <c r="C145" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A145)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A145)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A145)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A145)</f>
+        <v>41480</v>
       </c>
       <c r="D145" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A145)</f>
@@ -36001,8 +36002,8 @@
         <v>#N/A</v>
       </c>
       <c r="C146" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A146)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A146)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A146)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A146)</f>
+        <v>41480</v>
       </c>
       <c r="D146" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A146)</f>
@@ -36031,8 +36032,8 @@
         <v>#N/A</v>
       </c>
       <c r="C147" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A147)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A147)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A147)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A147)</f>
+        <v>41480</v>
       </c>
       <c r="D147" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A147)</f>
@@ -36061,8 +36062,8 @@
         <v>#N/A</v>
       </c>
       <c r="C148" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A148)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A148)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A148)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A148)</f>
+        <v>41480</v>
       </c>
       <c r="D148" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A148)</f>
@@ -36091,8 +36092,8 @@
         <v>#N/A</v>
       </c>
       <c r="C149" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A149)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A149)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A149)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A149)</f>
+        <v>41480</v>
       </c>
       <c r="D149" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A149)</f>
@@ -36151,9 +36152,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36205,7 +36206,7 @@
         <v>288</v>
       </c>
       <c r="C2" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A2)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A2)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A2)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="20">
@@ -36237,7 +36238,7 @@
         <v>271</v>
       </c>
       <c r="C3" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A3)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A3)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A3)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A3)</f>
         <v>0</v>
       </c>
       <c r="D3" s="20">
@@ -36267,7 +36268,7 @@
         <v>266</v>
       </c>
       <c r="C4" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A4)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A4)</f>
         <v>0</v>
       </c>
       <c r="D4" s="20">
@@ -36297,7 +36298,7 @@
         <v>241</v>
       </c>
       <c r="C5" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A5)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A5)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A5)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A5)</f>
         <v>0</v>
       </c>
       <c r="D5" s="20">
@@ -36327,7 +36328,7 @@
         <v>221</v>
       </c>
       <c r="C6" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A6)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A6)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A6)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A6)</f>
         <v>0</v>
       </c>
       <c r="D6" s="20">
@@ -36357,7 +36358,7 @@
         <v>217</v>
       </c>
       <c r="C7" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A7)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A7)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A7)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A7)</f>
         <v>0</v>
       </c>
       <c r="D7" s="20">
@@ -36387,7 +36388,7 @@
         <v>237</v>
       </c>
       <c r="C8" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A8)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A8)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A8)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A8)</f>
         <v>0</v>
       </c>
       <c r="D8" s="20">
@@ -36417,7 +36418,7 @@
         <v>246</v>
       </c>
       <c r="C9" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A9)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A9)</f>
         <v>0</v>
       </c>
       <c r="D9" s="20">
@@ -36447,7 +36448,7 @@
         <v>219</v>
       </c>
       <c r="C10" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A10)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A10)</f>
         <v>0</v>
       </c>
       <c r="D10" s="20">
@@ -36477,7 +36478,7 @@
         <v>241</v>
       </c>
       <c r="C11" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A11)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A11)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A11)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A11)</f>
         <v>0</v>
       </c>
       <c r="D11" s="20">
@@ -36507,7 +36508,7 @@
         <v>254</v>
       </c>
       <c r="C12" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A12)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A12)</f>
         <v>0</v>
       </c>
       <c r="D12" s="20">
@@ -36537,7 +36538,7 @@
         <v>225</v>
       </c>
       <c r="C13" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A13)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A13)</f>
         <v>0</v>
       </c>
       <c r="D13" s="20">
@@ -36567,7 +36568,7 @@
         <v>196</v>
       </c>
       <c r="C14" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A14)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A14)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A14)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A14)</f>
         <v>0</v>
       </c>
       <c r="D14" s="20">
@@ -36597,7 +36598,7 @@
         <v>213</v>
       </c>
       <c r="C15" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A15)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A15)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A15)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A15)</f>
         <v>0</v>
       </c>
       <c r="D15" s="20">
@@ -36627,7 +36628,7 @@
         <v>204</v>
       </c>
       <c r="C16" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A16)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A16)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A16)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A16)</f>
         <v>0</v>
       </c>
       <c r="D16" s="20">
@@ -36657,8 +36658,8 @@
         <v>167</v>
       </c>
       <c r="C17" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A17)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A17)</f>
-        <v>40</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A17)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A17)</f>
+        <v>-40</v>
       </c>
       <c r="D17" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A17)</f>
@@ -36666,15 +36667,15 @@
       </c>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="F17" s="20">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5">
@@ -36687,7 +36688,7 @@
         <v>185</v>
       </c>
       <c r="C18" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A18)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A18)</f>
         <v>0</v>
       </c>
       <c r="D18" s="20">
@@ -36717,7 +36718,7 @@
         <v>200</v>
       </c>
       <c r="C19" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A19)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A19)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A19)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A19)</f>
         <v>0</v>
       </c>
       <c r="D19" s="20">
@@ -36747,7 +36748,7 @@
         <v>177</v>
       </c>
       <c r="C20" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A20)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A20)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A20)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A20)</f>
         <v>0</v>
       </c>
       <c r="D20" s="20">
@@ -36777,7 +36778,7 @@
         <v>176</v>
       </c>
       <c r="C21" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A21)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A21)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A21)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A21)</f>
         <v>0</v>
       </c>
       <c r="D21" s="20">
@@ -36807,7 +36808,7 @@
         <v>164</v>
       </c>
       <c r="C22" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A22)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A22)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A22)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A22)</f>
         <v>0</v>
       </c>
       <c r="D22" s="20">
@@ -36837,7 +36838,7 @@
         <v>152</v>
       </c>
       <c r="C23" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A23)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A23)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A23)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A23)</f>
         <v>0</v>
       </c>
       <c r="D23" s="20">
@@ -36867,7 +36868,7 @@
         <v>150</v>
       </c>
       <c r="C24" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A24)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A24)</f>
         <v>0</v>
       </c>
       <c r="D24" s="20">
@@ -36897,7 +36898,7 @@
         <v>119</v>
       </c>
       <c r="C25" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A25)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A25)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A25)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A25)</f>
         <v>0</v>
       </c>
       <c r="D25" s="20">
@@ -36927,7 +36928,7 @@
         <v>137</v>
       </c>
       <c r="C26" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A26)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A26)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A26)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A26)</f>
         <v>0</v>
       </c>
       <c r="D26" s="20">
@@ -36957,7 +36958,7 @@
         <v>129</v>
       </c>
       <c r="C27" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A27)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A27)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A27)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A27)</f>
         <v>0</v>
       </c>
       <c r="D27" s="20">
@@ -36987,7 +36988,7 @@
         <v>161</v>
       </c>
       <c r="C28" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A28)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A28)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A28)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A28)</f>
         <v>0</v>
       </c>
       <c r="D28" s="20">
@@ -37017,7 +37018,7 @@
         <v>121</v>
       </c>
       <c r="C29" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A29)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A29)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A29)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A29)</f>
         <v>0</v>
       </c>
       <c r="D29" s="20">
@@ -37047,7 +37048,7 @@
         <v>123</v>
       </c>
       <c r="C30" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A30)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A30)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A30)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A30)</f>
         <v>0</v>
       </c>
       <c r="D30" s="20">
@@ -37077,7 +37078,7 @@
         <v>104</v>
       </c>
       <c r="C31" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A31)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A31)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A31)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A31)</f>
         <v>0</v>
       </c>
       <c r="D31" s="20">
@@ -37107,7 +37108,7 @@
         <v>79</v>
       </c>
       <c r="C32" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A32)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A32)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A32)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A32)</f>
         <v>0</v>
       </c>
       <c r="D32" s="20">
@@ -37137,7 +37138,7 @@
         <v>70</v>
       </c>
       <c r="C33" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A33)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A33)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A33)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A33)</f>
         <v>0</v>
       </c>
       <c r="D33" s="20">
@@ -37167,7 +37168,7 @@
         <v>89</v>
       </c>
       <c r="C34" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A34)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A34)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A34)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A34)</f>
         <v>0</v>
       </c>
       <c r="D34" s="20">
@@ -37197,7 +37198,7 @@
         <v>114</v>
       </c>
       <c r="C35" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A35)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A35)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A35)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A35)</f>
         <v>0</v>
       </c>
       <c r="D35" s="20">
@@ -37227,7 +37228,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A36)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A36)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A36)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A36)</f>
         <v>0</v>
       </c>
       <c r="D36" s="20">
@@ -37257,7 +37258,7 @@
         <v>70</v>
       </c>
       <c r="C37" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A37)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A37)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A37)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A37)</f>
         <v>0</v>
       </c>
       <c r="D37" s="20">
@@ -37287,7 +37288,7 @@
         <v>67</v>
       </c>
       <c r="C38" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A38)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A38)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A38)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A38)</f>
         <v>0</v>
       </c>
       <c r="D38" s="20">
@@ -37317,7 +37318,7 @@
         <v>80</v>
       </c>
       <c r="C39" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A39)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A39)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A39)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A39)</f>
         <v>0</v>
       </c>
       <c r="D39" s="20">
@@ -37347,7 +37348,7 @@
         <v>66</v>
       </c>
       <c r="C40" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A40)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A40)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A40)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A40)</f>
         <v>0</v>
       </c>
       <c r="D40" s="20">
@@ -37377,7 +37378,7 @@
         <v>96</v>
       </c>
       <c r="C41" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A41)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A41)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A41)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A41)</f>
         <v>0</v>
       </c>
       <c r="D41" s="20">
@@ -37407,7 +37408,7 @@
         <v>78</v>
       </c>
       <c r="C42" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A42)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A42)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A42)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A42)</f>
         <v>0</v>
       </c>
       <c r="D42" s="20">
@@ -37437,7 +37438,7 @@
         <v>109</v>
       </c>
       <c r="C43" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A43)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A43)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A43)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A43)</f>
         <v>0</v>
       </c>
       <c r="D43" s="20">
@@ -37467,7 +37468,7 @@
         <v>107</v>
       </c>
       <c r="C44" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A44)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A44)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A44)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A44)</f>
         <v>0</v>
       </c>
       <c r="D44" s="20">
@@ -37497,7 +37498,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A45)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A45)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A45)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A45)</f>
         <v>0</v>
       </c>
       <c r="D45" s="20">
@@ -37527,7 +37528,7 @@
         <v>39</v>
       </c>
       <c r="C46" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A46)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A46)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A46)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A46)</f>
         <v>0</v>
       </c>
       <c r="D46" s="20">
@@ -37557,7 +37558,7 @@
         <v>35</v>
       </c>
       <c r="C47" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A47)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A47)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A47)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A47)</f>
         <v>0</v>
       </c>
       <c r="D47" s="20">
@@ -37587,7 +37588,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A48)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A48)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A48)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A48)</f>
         <v>0</v>
       </c>
       <c r="D48" s="20">
@@ -37617,7 +37618,7 @@
         <v>19</v>
       </c>
       <c r="C49" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A49)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A49)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A49)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A49)</f>
         <v>0</v>
       </c>
       <c r="D49" s="20">
@@ -37647,7 +37648,7 @@
         <v>52</v>
       </c>
       <c r="C50" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A50)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A50)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A50)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A50)</f>
         <v>0</v>
       </c>
       <c r="D50" s="20">
@@ -37677,7 +37678,7 @@
         <v>34</v>
       </c>
       <c r="C51" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A51)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A51)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A51)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A51)</f>
         <v>0</v>
       </c>
       <c r="D51" s="20">
@@ -37707,7 +37708,7 @@
         <v>34</v>
       </c>
       <c r="C52" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A52)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A52)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A52)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A52)</f>
         <v>0</v>
       </c>
       <c r="D52" s="20">
@@ -37737,7 +37738,7 @@
         <v>58</v>
       </c>
       <c r="C53" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A53)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A53)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A53)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A53)</f>
         <v>0</v>
       </c>
       <c r="D53" s="20">
@@ -37767,7 +37768,7 @@
         <v>19</v>
       </c>
       <c r="C54" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A54)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A54)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A54)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A54)</f>
         <v>0</v>
       </c>
       <c r="D54" s="20">
@@ -37797,7 +37798,7 @@
         <v>43</v>
       </c>
       <c r="C55" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A55)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A55)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A55)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A55)</f>
         <v>0</v>
       </c>
       <c r="D55" s="20">
@@ -37827,7 +37828,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A56)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A56)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A56)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A56)</f>
         <v>0</v>
       </c>
       <c r="D56" s="20">
@@ -37857,7 +37858,7 @@
         <v>24</v>
       </c>
       <c r="C57" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A57)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A57)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A57)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A57)</f>
         <v>0</v>
       </c>
       <c r="D57" s="20">
@@ -37887,7 +37888,7 @@
         <v>43</v>
       </c>
       <c r="C58" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A58)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A58)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A58)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A58)</f>
         <v>0</v>
       </c>
       <c r="D58" s="20">
@@ -37917,7 +37918,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A59)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A59)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A59)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A59)</f>
         <v>0</v>
       </c>
       <c r="D59" s="20">
@@ -37947,7 +37948,7 @@
         <v>19</v>
       </c>
       <c r="C60" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A60)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A60)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A60)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A60)</f>
         <v>0</v>
       </c>
       <c r="D60" s="20">
@@ -37977,7 +37978,7 @@
         <v>46</v>
       </c>
       <c r="C61" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A61)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A61)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A61)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A61)</f>
         <v>0</v>
       </c>
       <c r="D61" s="20">
@@ -38007,7 +38008,7 @@
         <v>43</v>
       </c>
       <c r="C62" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A62)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A62)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A62)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A62)</f>
         <v>0</v>
       </c>
       <c r="D62" s="20">
@@ -38037,7 +38038,7 @@
         <v>24</v>
       </c>
       <c r="C63" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A63)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A63)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A63)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A63)</f>
         <v>0</v>
       </c>
       <c r="D63" s="20">
@@ -38067,7 +38068,7 @@
         <v>19</v>
       </c>
       <c r="C64" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A64)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A64)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A64)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A64)</f>
         <v>0</v>
       </c>
       <c r="D64" s="20">
@@ -38097,7 +38098,7 @@
         <v>19</v>
       </c>
       <c r="C65" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A65)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A65)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A65)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A65)</f>
         <v>0</v>
       </c>
       <c r="D65" s="20">
@@ -38127,7 +38128,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A66)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A66)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A66)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A66)</f>
         <v>0</v>
       </c>
       <c r="D66" s="20">
@@ -38157,7 +38158,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A67)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A67)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A67)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A67)</f>
         <v>0</v>
       </c>
       <c r="D67" s="20">
@@ -38187,7 +38188,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A68)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A68)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A68)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A68)</f>
         <v>0</v>
       </c>
       <c r="D68" s="20">
@@ -38217,7 +38218,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A69)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A69)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A69)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A69)</f>
         <v>0</v>
       </c>
       <c r="D69" s="20">
@@ -38247,7 +38248,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A70)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A70)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A70)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A70)</f>
         <v>0</v>
       </c>
       <c r="D70" s="20">
@@ -38277,7 +38278,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A71)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A71)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A71)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A71)</f>
         <v>0</v>
       </c>
       <c r="D71" s="20">
@@ -38307,7 +38308,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A72)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A72)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A72)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A72)</f>
         <v>0</v>
       </c>
       <c r="D72" s="20">
@@ -38337,7 +38338,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A73)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A73)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A73)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A73)</f>
         <v>0</v>
       </c>
       <c r="D73" s="20">
@@ -38367,7 +38368,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A74)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A74)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A74)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A74)</f>
         <v>0</v>
       </c>
       <c r="D74" s="20">
@@ -38397,7 +38398,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A75)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A75)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A75)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A75)</f>
         <v>0</v>
       </c>
       <c r="D75" s="20">
@@ -38427,7 +38428,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A76)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A76)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A76)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A76)</f>
         <v>0</v>
       </c>
       <c r="D76" s="20">
@@ -38457,7 +38458,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A77)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A77)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A77)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A77)</f>
         <v>0</v>
       </c>
       <c r="D77" s="20">
@@ -38487,7 +38488,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A78)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A78)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A78)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A78)</f>
         <v>0</v>
       </c>
       <c r="D78" s="20">
@@ -38517,7 +38518,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A79)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A79)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A79)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A79)</f>
         <v>0</v>
       </c>
       <c r="D79" s="20">
@@ -38547,7 +38548,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A80)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A80)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A80)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A80)</f>
         <v>0</v>
       </c>
       <c r="D80" s="20">
@@ -38577,7 +38578,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A81)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A81)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A81)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A81)</f>
         <v>0</v>
       </c>
       <c r="D81" s="20">
@@ -38607,7 +38608,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A82)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A82)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A82)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A82)</f>
         <v>0</v>
       </c>
       <c r="D82" s="20">
@@ -38637,7 +38638,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A83)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A83)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A83)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A83)</f>
         <v>0</v>
       </c>
       <c r="D83" s="20">
@@ -38667,7 +38668,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A84)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A84)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A84)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A84)</f>
         <v>0</v>
       </c>
       <c r="D84" s="20">
@@ -38697,7 +38698,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A85)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A85)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A85)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A85)</f>
         <v>0</v>
       </c>
       <c r="D85" s="20">
@@ -38727,7 +38728,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A86)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A86)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A86)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A86)</f>
         <v>0</v>
       </c>
       <c r="D86" s="20">
@@ -38757,7 +38758,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A87)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A87)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A87)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A87)</f>
         <v>0</v>
       </c>
       <c r="D87" s="20">
@@ -38787,7 +38788,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A88)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A88)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A88)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A88)</f>
         <v>0</v>
       </c>
       <c r="D88" s="20">
@@ -38817,7 +38818,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A89)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A89)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A89)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A89)</f>
         <v>0</v>
       </c>
       <c r="D89" s="20">
@@ -38847,7 +38848,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A90)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A90)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A90)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A90)</f>
         <v>0</v>
       </c>
       <c r="D90" s="20">
@@ -38877,7 +38878,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A91)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A91)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A91)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A91)</f>
         <v>0</v>
       </c>
       <c r="D91" s="20">
@@ -38907,7 +38908,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A92)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A92)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A92)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A92)</f>
         <v>0</v>
       </c>
       <c r="D92" s="20">
@@ -38937,7 +38938,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A93)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A93)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A93)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A93)</f>
         <v>0</v>
       </c>
       <c r="D93" s="20">
@@ -38967,7 +38968,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A94)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A94)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A94)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A94)</f>
         <v>0</v>
       </c>
       <c r="D94" s="20">
@@ -38997,7 +38998,7 @@
         <v>0</v>
       </c>
       <c r="C95" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A95)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A95)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A95)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A95)</f>
         <v>0</v>
       </c>
       <c r="D95" s="20">
@@ -39027,7 +39028,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A96)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A96)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A96)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A96)</f>
         <v>0</v>
       </c>
       <c r="D96" s="20">
@@ -39057,7 +39058,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A97)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A97)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A97)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A97)</f>
         <v>0</v>
       </c>
       <c r="D97" s="20">
@@ -39087,7 +39088,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A98)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A98)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A98)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A98)</f>
         <v>0</v>
       </c>
       <c r="D98" s="20">
@@ -39117,7 +39118,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A99)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A99)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A99)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A99)</f>
         <v>0</v>
       </c>
       <c r="D99" s="20">
@@ -39147,7 +39148,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A100)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A100)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A100)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A100)</f>
         <v>0</v>
       </c>
       <c r="D100" s="20">
@@ -39177,7 +39178,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A101)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A101)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A101)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A101)</f>
         <v>0</v>
       </c>
       <c r="D101" s="20">
@@ -39207,7 +39208,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A102)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A102)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A102)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A102)</f>
         <v>0</v>
       </c>
       <c r="D102" s="20">
@@ -39237,7 +39238,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A103)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A103)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A103)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A103)</f>
         <v>0</v>
       </c>
       <c r="D103" s="20">
@@ -39267,7 +39268,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A104)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A104)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A104)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A104)</f>
         <v>0</v>
       </c>
       <c r="D104" s="20">
@@ -39297,7 +39298,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A105)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A105)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A105)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A105)</f>
         <v>0</v>
       </c>
       <c r="D105" s="20">
@@ -39327,7 +39328,7 @@
         <v>0</v>
       </c>
       <c r="C106" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A106)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A106)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A106)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A106)</f>
         <v>0</v>
       </c>
       <c r="D106" s="20">
@@ -39357,7 +39358,7 @@
         <v>0</v>
       </c>
       <c r="C107" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A107)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A107)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A107)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A107)</f>
         <v>0</v>
       </c>
       <c r="D107" s="20">
@@ -39387,7 +39388,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A108)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A108)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A108)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A108)</f>
         <v>0</v>
       </c>
       <c r="D108" s="20">
@@ -39417,7 +39418,7 @@
         <v>0</v>
       </c>
       <c r="C109" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A109)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A109)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A109)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A109)</f>
         <v>0</v>
       </c>
       <c r="D109" s="20">
@@ -39447,7 +39448,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A110)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A110)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A110)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A110)</f>
         <v>0</v>
       </c>
       <c r="D110" s="20">
@@ -39477,7 +39478,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A111)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A111)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A111)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A111)</f>
         <v>0</v>
       </c>
       <c r="D111" s="20">
@@ -39507,7 +39508,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A112)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A112)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A112)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A112)</f>
         <v>0</v>
       </c>
       <c r="D112" s="20">
@@ -39537,7 +39538,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A113)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A113)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A113)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A113)</f>
         <v>0</v>
       </c>
       <c r="D113" s="20">
@@ -39567,7 +39568,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A114)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A114)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A114)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A114)</f>
         <v>0</v>
       </c>
       <c r="D114" s="20">
@@ -39597,7 +39598,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A115)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A115)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A115)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A115)</f>
         <v>0</v>
       </c>
       <c r="D115" s="20">
@@ -39627,7 +39628,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A116)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A116)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A116)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A116)</f>
         <v>0</v>
       </c>
       <c r="D116" s="20">
@@ -39657,7 +39658,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A117)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A117)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A117)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A117)</f>
         <v>0</v>
       </c>
       <c r="D117" s="20">
@@ -39687,7 +39688,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A118)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A118)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A118)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A118)</f>
         <v>0</v>
       </c>
       <c r="D118" s="20">
@@ -39717,7 +39718,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A119)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A119)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A119)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A119)</f>
         <v>0</v>
       </c>
       <c r="D119" s="20">
@@ -39747,7 +39748,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A120)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A120)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A120)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A120)</f>
         <v>0</v>
       </c>
       <c r="D120" s="20">
@@ -39777,7 +39778,7 @@
         <v>0</v>
       </c>
       <c r="C121" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A121)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A121)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A121)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A121)</f>
         <v>0</v>
       </c>
       <c r="D121" s="20">
@@ -39807,7 +39808,7 @@
         <v>0</v>
       </c>
       <c r="C122" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A122)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A122)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A122)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A122)</f>
         <v>0</v>
       </c>
       <c r="D122" s="20">
@@ -39837,7 +39838,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A123)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A123)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A123)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A123)</f>
         <v>0</v>
       </c>
       <c r="D123" s="20">
@@ -39867,7 +39868,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A124)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A124)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A124)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A124)</f>
         <v>0</v>
       </c>
       <c r="D124" s="20">
@@ -39897,7 +39898,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A125)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A125)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A125)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A125)</f>
         <v>0</v>
       </c>
       <c r="D125" s="20">
@@ -39927,7 +39928,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A126)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A126)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A126)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A126)</f>
         <v>0</v>
       </c>
       <c r="D126" s="20">
@@ -39957,7 +39958,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A127)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A127)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A127)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A127)</f>
         <v>0</v>
       </c>
       <c r="D127" s="20">
@@ -39987,7 +39988,7 @@
         <v>0</v>
       </c>
       <c r="C128" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A128)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A128)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A128)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A128)</f>
         <v>0</v>
       </c>
       <c r="D128" s="20">
@@ -40017,7 +40018,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A129)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A129)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A129)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A129)</f>
         <v>0</v>
       </c>
       <c r="D129" s="20">
@@ -40047,7 +40048,7 @@
         <v>0</v>
       </c>
       <c r="C130" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A130)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A130)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A130)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A130)</f>
         <v>0</v>
       </c>
       <c r="D130" s="20">
@@ -40077,7 +40078,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A131)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A131)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A131)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A131)</f>
         <v>0</v>
       </c>
       <c r="D131" s="20">
@@ -40107,7 +40108,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A132)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A132)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A132)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A132)</f>
         <v>0</v>
       </c>
       <c r="D132" s="20">
@@ -40137,7 +40138,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A133)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A133)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A133)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A133)</f>
         <v>0</v>
       </c>
       <c r="D133" s="20">
@@ -40167,7 +40168,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A134)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A134)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A134)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A134)</f>
         <v>0</v>
       </c>
       <c r="D134" s="20">
@@ -40197,7 +40198,7 @@
         <v>0</v>
       </c>
       <c r="C135" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A135)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A135)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A135)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A135)</f>
         <v>0</v>
       </c>
       <c r="D135" s="20">
@@ -40227,7 +40228,7 @@
         <v>0</v>
       </c>
       <c r="C136" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A136)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A136)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A136)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A136)</f>
         <v>0</v>
       </c>
       <c r="D136" s="20">
@@ -40257,7 +40258,7 @@
         <v>0</v>
       </c>
       <c r="C137" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A137)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A137)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A137)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A137)</f>
         <v>0</v>
       </c>
       <c r="D137" s="20">
@@ -40287,7 +40288,7 @@
         <v>0</v>
       </c>
       <c r="C138" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A138)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A138)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A138)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A138)</f>
         <v>0</v>
       </c>
       <c r="D138" s="20">
@@ -40317,7 +40318,7 @@
         <v>0</v>
       </c>
       <c r="C139" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A139)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A139)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A139)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A139)</f>
         <v>0</v>
       </c>
       <c r="D139" s="20">
@@ -40347,7 +40348,7 @@
         <v>0</v>
       </c>
       <c r="C140" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A140)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A140)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A140)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A140)</f>
         <v>0</v>
       </c>
       <c r="D140" s="20">
@@ -40377,7 +40378,7 @@
         <v>0</v>
       </c>
       <c r="C141" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A141)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A141)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A141)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A141)</f>
         <v>0</v>
       </c>
       <c r="D141" s="20">
@@ -40407,7 +40408,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A142)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A142)</f>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A142)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A142)</f>
         <v>0</v>
       </c>
       <c r="D142" s="20">
@@ -40437,8 +40438,8 @@
         <v>#N/A</v>
       </c>
       <c r="C143" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A143)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A143)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A143)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A143)</f>
+        <v>41480</v>
       </c>
       <c r="D143" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A143)</f>
@@ -40467,8 +40468,8 @@
         <v>#N/A</v>
       </c>
       <c r="C144" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A144)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A144)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A144)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A144)</f>
+        <v>41480</v>
       </c>
       <c r="D144" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A144)</f>
@@ -40497,8 +40498,8 @@
         <v>#N/A</v>
       </c>
       <c r="C145" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A145)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A145)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A145)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A145)</f>
+        <v>41480</v>
       </c>
       <c r="D145" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A145)</f>
@@ -40527,8 +40528,8 @@
         <v>#N/A</v>
       </c>
       <c r="C146" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A146)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A146)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A146)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A146)</f>
+        <v>41480</v>
       </c>
       <c r="D146" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A146)</f>
@@ -40557,8 +40558,8 @@
         <v>#N/A</v>
       </c>
       <c r="C147" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A147)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A147)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A147)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A147)</f>
+        <v>41480</v>
       </c>
       <c r="D147" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A147)</f>
@@ -40587,8 +40588,8 @@
         <v>#N/A</v>
       </c>
       <c r="C148" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A148)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A148)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A148)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A148)</f>
+        <v>41480</v>
       </c>
       <c r="D148" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A148)</f>
@@ -40617,8 +40618,8 @@
         <v>#N/A</v>
       </c>
       <c r="C149" s="20">
-        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A149)+40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A149)</f>
-        <v>376520</v>
+        <f>50*COUNTIF(帮战总榜!A$1:AB$150,$A149)-40*COUNTIF('掠夺(系统榜单)'!A$1:AB$150,$A149)</f>
+        <v>41480</v>
       </c>
       <c r="D149" s="20">
         <f>20*COUNTIF('YY统计(掠夺+各类活动)'!A$2:M$150,$A149)</f>
